--- a/.ecoalf/ecoalf_men_products.xlsx
+++ b/.ecoalf/ecoalf_men_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9676,6 +9676,7564 @@
         </is>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Green
+                        Limpo
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>109,90€</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; GREEN LIMPO TROUSERS</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Limpo trousers are made of 65% regenerative cotton and 35% recycled cotton. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. Timeless, elegant and ideal for everyday use. • Mid-rise waist • Belt loops at the waist • Slant pockets • Welt pockets at the back • Front pleats • Pleated finishes • Fly with central button on the waistband • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+597,95 liters of water used 79% % of liters saved 6,71 kg CO2 eq used 45% % of kg CO2 eq saved 1100 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+597,95 liters of water used 79% % of liters saved 6,71 kg CO2 eq used 45% % of kg CO2 eq saved 1100 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/limpo-pants-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Beige
+                        Limpo
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>109,90€</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; BEIGE LIMPO TROUSERS</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Limpo trousers are made of 65% regenerative cotton and 35% recycled cotton. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. Timeless, elegant and ideal for everyday use. • Mid-rise waist • Belt loops at the waist • Slant pockets • Welt pockets at the back • Front pleats • Pleated finishes • Fly with central button on the waistband • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+597,95 liters of water used 79% % of liters saved 6,71 kg CO2 eq used 45% % of kg CO2 eq saved 1100 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+597,95 liters of water used 79% % of liters saved 6,71 kg CO2 eq used 45% % of kg CO2 eq saved 1100 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/limpo-pants-man-toast-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Blue
+                        Reversible
+                        Lister
+                        Vest</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>179,90€</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BLUE REVERSIBLE LISTER VEST</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lister vest is made of a blend of 100% recycled Polyamide and 100% recycled PrimaLoft® Polyester filling. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Elegant and ideal for any occasion. • Regular fit • Hip length • Central front fastening with two-way personalised zip • Puffer-style body • Kangaroo pocket • Ribbed collar • Interior branding • Water-repellent • Vegan
+[SUSTAINABILITY REPORT]
+269,63 liters of water used 54% % of liters saved 6,28 kg CO2 eq used 47% % of kg CO2 eq saved 21751,77 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+269,63 liters of water used 54% % of liters saved 6,28 kg CO2 eq used 47% % of kg CO2 eq saved 21751,77 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/lister-vest-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Reversible
+                        Lister
+                        Vest</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>179,90€</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; DARK GREEN REVERSIBLE LISTER VEST</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lister vest is made of a blend of 100% recycled Polyamide and 100% recycled PrimaLoft® Polyester filling. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Elegant and ideal for any occasion. • Regular fit • Hip length • Central front fastening with two-way personalised zip • Puffer-style body • Kangaroo pocket • Ribbed collar • Interior branding • Water-repellent • Vegan
+[SUSTAINABILITY REPORT]
+269,63 liters of water used 54% % of liters saved 6,28 kg CO2 eq used 47% % of kg CO2 eq saved 21751,77 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+269,63 liters of water used 54% % of liters saved 6,28 kg CO2 eq used 47% % of kg CO2 eq saved 21751,77 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/lister-vest-man-safari-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>White
+                        Long-sleeved
+                        Mampi
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>69,90€</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; WHITE LONG-SLEEVED MAMPI T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Mampi T-Shirt is made of 50% recycled cotton and 50% organic cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Simple, elegant and ideal for everyday use. • Regular cut • Round neck • Ribbed collar • Print on the back • Garment dyed • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+858,45 liters of water used 75% % of liters saved 5,75 kg CO2 eq used 47% % of kg CO2 eq saved 13794 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+858,45 liters of water used 75% % of liters saved 5,75 kg CO2 eq used 47% % of kg CO2 eq saved 13794 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mampi-long-sleeve-t-shirt-man-white-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Marne
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; DARK GREY MARNE TROUSERS</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Marne trousers are made of 70% regenerative cotton, 26% recycled cotton and 4% elastane. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. Simple and ideal for everyday use. • Mid-rise • Regular cut • Side cargo pockets with concealed press studs • Slant pockets • Belt loops at the waist • Welt pocket with button at the back • Fly with central button on the waistband • Dyed • Brand details • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1502,29 liters of water used 77% % of liters saved 17,03 kg CO2 eq used 37% % of kg CO2 eq saved 3638,43 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1502,29 liters of water used 77% % of liters saved 17,03 kg CO2 eq used 37% % of kg CO2 eq saved 3638,43 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/marne-pants-man-asphalt-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Green
+                        Marne
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; GREEN MARNE TROUSERS</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Marne trousers are made of 70% regenerative cotton, 26% recycled cotton and 4% elastane. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. Simple and ideal for everyday use. • Mid-rise • Regular cut • Side cargo pockets with concealed press studs • Slant pockets • Belt loops at the waist • Welt pocket with button at the back • Fly with central button on the waistband • Dyed • Brand details • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1502,29 liters of water used 77% % of liters saved 17,03 kg CO2 eq used 37% % of kg CO2 eq saved 3638,43 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1502,29 liters of water used 77% % of liters saved 17,03 kg CO2 eq used 37% % of kg CO2 eq saved 3638,43 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/marne-pants-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Marne
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; NAVY BLUE MARNE TROUSERS</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Marne trousers are made of 70% regenerative cotton, 26% recycled cotton and 4% elastane. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. Simple and ideal for everyday use. • Mid-rise • Regular cut • Side cargo pockets with concealed press studs • Slant pockets • Belt loops at the waist • Welt pocket with button at the back • Fly with central button on the waistband • Dyed • Brand details • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1502,29 liters of water used 77% % of liters saved 17,03 kg CO2 eq used 37% % of kg CO2 eq saved 3638,43 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1502,29 liters of water used 77% % of liters saved 17,03 kg CO2 eq used 37% % of kg CO2 eq saved 3638,43 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/marne-pants-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Beige
+                        Marne
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; BEIGE MARNE TROUSERS</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Marne trousers are made of 70% regenerative cotton, 26% recycled cotton and 4% elastane. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. Simple and ideal for everyday use. • Mid-rise • Regular cut • Side cargo pockets with concealed press studs • Slant pockets • Belt loops at the waist • Welt pocket with button at the back • Fly with central button on the waistband • Dyed • Brand details • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1502,29 liters of water used 77% % of liters saved 17,03 kg CO2 eq used 37% % of kg CO2 eq saved 3638,43 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1502,29 liters of water used 77% % of liters saved 17,03 kg CO2 eq used 37% % of kg CO2 eq saved 3638,43 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/marne-pants-man-dune-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Mustard
+                        Marne
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; MUSTARD MARNE TROUSERS</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Marne trousers are made of 70% regenerative cotton, 26% recycled cotton and 4% elastane. Regenerative cotton strengthens agricultural resilience through sustainable practices while empowering producers, improving soil health and ensuring decent working conditions. Simple and ideal for everyday use. • Mid-rise • Regular cut • Side cargo pockets with concealed press studs • Slant pockets • Belt loops at the waist • Welt pocket with button at the back • Fly with central button on the waistband • Dyed • Brand details • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1502,29 liters of water used 77% % of liters saved 17,03 kg CO2 eq used 37% % of kg CO2 eq saved 3638,43 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1502,29 liters of water used 77% % of liters saved 17,03 kg CO2 eq used 37% % of kg CO2 eq saved 3638,43 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/marne-pants-man-honey-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Blue
+                        Marne
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; BLUE MARNE TROUSERS</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Marne cargo trousers are made from 100% recycled cotton that comes from discarded textile garments and end-of-life cotton products alike. Soft trousers that foster the circular economy. Primary fabric: 100% recycled cotton Regular fit Mid-rise Cargo side pockets French Pockets Belt loops at the waist Rear ribbed pocket Button fly ECOALF logo on the pocket Vegan
+[SUSTAINABILITY REPORT]
+80,2 liters of water used 96% % of liters saved 7,73 kg CO2 eq used 50% % of kg CO2 eq saved 38 people behind with safe work &amp; better livelihoods + 25 processes from design to sale in a product ethically traded 7.528 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+80,2 liters of water used 96% % of liters saved 7,73 kg CO2 eq used 50% % of kg CO2 eq saved 38 people behind with safe work &amp; better livelihoods + 25 processes from design to sale in a product ethically traded 7.528 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/marnealf-pants-man-greyblue-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Beige
+                        Marne
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; BEIGE MARNE TROUSERS</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Marne cargo trousers are made from 100% recycled cotton that comes from discarded textile garments and end-of-life cotton products alike. Soft trousers that foster the circular economy. Primary fabric: 100% recycled cotton Regular fit Mid-rise Cargo side pockets French Pockets Belt loops at the waist Rear ribbed pocket Button fly ECOALF logo on the pocket Vegan
+[SUSTAINABILITY REPORT]
+80,2 liters of water used 96% % of liters saved 7,73 kg CO2 eq used 50% % of kg CO2 eq saved 38 people behind with safe work &amp; better livelihoods + 25 processes from design to sale in a product ethically traded 7.528 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+80,2 liters of water used 96% % of liters saved 7,73 kg CO2 eq used 50% % of kg CO2 eq saved 38 people behind with safe work &amp; better livelihoods + 25 processes from design to sale in a product ethically traded 7.528 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/marnealf-pants-man-ice-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Light
+                        Blue
+                        Marula
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; LIGHT BLUE MARULA SWEATER</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Marula sweater for men is made of 100% recycled wool. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and ideal for everyday use. • Relaxed cut • Round neck • Ribbed collar, cuffs and hem • Interior branding
+[SUSTAINABILITY REPORT]
+189,47 liters of water used 79% % of liters saved 5,47 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+189,47 liters of water used 79% % of liters saved 5,47 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/marula-knit-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Light
+                        Grey
+                        Marula
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; LIGHT GREY MARULA SWEATER</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Marula sweater for men is made of 100% recycled wool. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and ideal for everyday use. • Relaxed cut • Round neck • Ribbed collar, cuffs and hem • Interior branding
+[SUSTAINABILITY REPORT]
+189,47 liters of water used 79% % of liters saved 5,47 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+189,47 liters of water used 79% % of liters saved 5,47 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/marula-knit-man-light-grey-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>T-shirt
+                        Regeneration
+                        White
+                        And
+                        Black</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>59,90€</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; T-SHIRT REGENERATION WHITE AND BLACK</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Regeneration Vent T-shirt is part of the new ECOALF x MATERRA collection. For the first time, we enter the world of regeneration with a collection made of 100% regenerative cotton, giving back to the Earth and creating a positive impact on the soil, biodiversity, and farmers. Each T-shirt regenerates 6.03 m² and includes a QR code that takes you to India to learn about the project and the people behind it – they are the heroes of this revolution. Let’s revive the Earth together. Are you in? Composition: 100% regenerative cotton Each T-shirt regenerates: 6.03 m² of land Total regenerated land with the collection: +5 hectares How do we create a positive impact? Reviving the land (improving soil health) Increasing water absorption CO₂ sequestration in the soil Improving farmers' livelihoods Restoring biodiversity
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mcmgatsventv8770w25-122-retail</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>T-shirt
+                        Regeneration
+                        Gray
+                        And
+                        Pink</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>59,90€</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; T-SHIRT REGENERATION GRAY AND PINK</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Regeneration Vent T-shirt is part of the new ECOALF x MATERRA collection. For the first time, we enter the world of regeneration with a collection made of 100% regenerative cotton, giving back to the Earth and creating a positive impact on the soil, biodiversity, and farmers. Each T-shirt regenerates 6.03 m² and includes a QR code that takes you to India to learn about the project and the people behind it – they are the heroes of this revolution. Let’s revive the Earth together. Are you in? Composition: 100% regenerative cotton Each T-shirt regenerates: 6.03 m² of land Total regenerated land with the collection: +5 hectares How do we create a positive impact? Reviving the land (improving soil health) Increasing water absorption CO₂ sequestration in the soil Improving farmers' livelihoods Restoring biodiversity
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mcmgatsventv8770w25-907-retail</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Green
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for women &gt; GREEN PACHO BAG</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The iconic Pacho bag with the Because There Is No Planet B® claim in an exclusive collection for comfort and functionality. Made from leftover Ecoalf fabrics, it's designed to take you wherever you go and encourage a sustainable lifestyle. Keep it, reuse it and recycle it. No more single-use plastic bags - choose your favourite colour and take it with you everywhere! For every Pacho bag from the Because There Is No Planet B® collection sold, we will donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already gathered more than 4,200 fishermen and recovered more than 1,700 tons of waste from the ocean. Each bag is equivalent to 3.69 kg of waste collected from the ocean floor. Main fabric: 70% Sorona®/ 30% Recycled Polyester Multi-purpose bag Folds up into a roll, perfect for easy storage and packaging Elastic band and button closure Printed logo Double handle (can be carried in the hand, or slung over the shoulder) Open inner pocket Measurements: 37x55x22cm
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mcuacfbrolle0243s25-137-bag</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The iconic Pacho bag with the Because There Is No Planet B® claim in an exclusive collection for comfort and functionality. Made from leftover Ecoalf fabrics, it's designed to take you wherever you go and encourage a sustainable lifestyle. Keep it, reuse it and recycle it. No more single-use plastic bags - choose your favourite colour and take it with you everywhere! For every Pacho bag from the Because There Is No Planet B® collection sold, we will donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already gathered more than 4,200 fishermen and recovered more than 1,700 tons of waste from the ocean. Each bag is equivalent to 3.69 kg of waste collected from the ocean floor. Main fabric: 70% Sorona®/ 30% Recycled Polyester Multi-purpose bag Folds up into a roll, perfect for easy storage and packaging Elastic band and button closure Printed logo Double handle (can be carried in the hand, or slung over the shoulder) Open inner pocket Measurements: 37x55x22cm
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mcuacfbrolle0243s25-218-bag</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Pacho
+                        Bag
+                        Dark
+                        Grey</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for women &gt; PACHO BAG DARK GREY</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The iconic Pacho bag with the Because There Is No Planet B® claim in an exclusive collection for comfort and functionality. Made from leftover Ecoalf fabrics, it's designed to take you wherever you go and encourage a sustainable lifestyle. Keep it, reuse it and recycle it. No more single-use plastic bags - choose your favourite colour and take it with you everywhere! For every Pacho bag from the Because There Is No Planet B® collection sold, we will donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already gathered more than 4,200 fishermen and recovered more than 1,700 tons of waste from the ocean. Each bag is equivalent to 3.69 kg of waste collected from the ocean floor. Main fabric: 70% Sorona®/ 30% Recycled Polyester Multi-purpose bag Folds up into a roll, perfect for easy storage and packaging Elastic band and button closure Printed logo Double handle (can be carried in the hand, or slung over the shoulder) Open inner pocket Measurements: 37x55x22cm
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mcuacfbrolle0243s25-303-bag</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Red
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for women &gt; RED PACHO BAG</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The iconic Pacho bag with the Because There Is No Planet B® claim in an exclusive collection for comfort and functionality. Made from leftover Ecoalf fabrics, it's designed to take you wherever you go and encourage a sustainable lifestyle. Keep it, reuse it and recycle it. No more single-use plastic bags - choose your favourite colour and take it with you everywhere! For every Pacho bag from the Because There Is No Planet B® collection sold, we will donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already gathered more than 4,200 fishermen and recovered more than 1,700 tons of waste from the ocean. Each bag is equivalent to 3.69 kg of waste collected from the ocean floor. Main fabric: 70% Sorona®/ 30% Recycled Polyester Multi-purpose bag Folds up into a roll, perfect for easy storage and packaging Elastic band and button closure Printed logo Double handle (can be carried in the hand, or slung over the shoulder) Open inner pocket Measurements: 37x55x22cm
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mcuacfbrolle0243s25-380-bag</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Green
+                        Meru
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>199,90€</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; GREEN MERU JACKET</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Meru jacket is made of 100% recycled polyester. Its lining and padding are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Elegant, timeless and perfect for the in-between seasons. • Regular cut • High collar • Ribbed collar and cuffs • 12GG fabric on the sleeves • Puffed body • Central front fastening with personalised zip • Lower front pocket with zip • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+344,89 liters of water used 55% % of liters saved 6,6 kg CO2 eq used 44% % of kg CO2 eq saved 20336,64 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+344,89 liters of water used 55% % of liters saved 6,6 kg CO2 eq used 44% % of kg CO2 eq saved 20336,64 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/meru-hybrid-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Black
+                        Meru
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>199,90€</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BLACK MERU JACKET</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Meru jacket is made of 100% recycled polyester. Its lining and padding are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Elegant, timeless and perfect for the in-between seasons. • Regular cut • High collar • Ribbed collar and cuffs • 12GG fabric on the sleeves • Puffed body • Central front fastening with personalised zip • Lower front pocket with zip • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+344,89 liters of water used 55% % of liters saved 6,6 kg CO2 eq used 44% % of kg CO2 eq saved 20336,64 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+344,89 liters of water used 55% % of liters saved 6,6 kg CO2 eq used 44% % of kg CO2 eq saved 20336,64 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/meru-hybrid-man-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Meye
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>159,90€</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; DARK GREY MEYE SWEATER</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Meye sweater is made of 100% recycled wool. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and perfect for the in-between seasons. • Regular cut • Ribbed collar • Cuffs and sleeves • Personalised fastening with central front zip • Interior branding
+[SUSTAINABILITY REPORT]
+222,17 liters of water used 79% % of liters saved 7,61 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+222,17 liters of water used 79% % of liters saved 7,61 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/meye-knit-man-dark-grey-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Beige
+                        Meye
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>159,90€</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; BEIGE MEYE SWEATER</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Meye sweater is made of 100% recycled wool. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and perfect for the in-between seasons. • Regular cut • Ribbed collar • Cuffs and sleeves • Personalised fastening with central front zip • Interior branding
+[SUSTAINABILITY REPORT]
+222,17 liters of water used 79% % of liters saved 7,61 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+222,17 liters of water used 79% % of liters saved 7,61 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/meye-knit-man-toast-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Min
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; DARK GREY MIN T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Min T-Shirt is made of 50% recycled cotton and 50% organic cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. For every product sold from our Because There Is No Planet B® collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,700 tonnes of waste from the ocean. Simple, elegant and ideal for everyday use. • Regular cut • Round neck • Ribbed collar • Print on the front • Garment dyed • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+364,88 liters of water used 78% % of liters saved 2,44 kg CO2 eq used 59% % of kg CO2 eq saved 13794 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+364,88 liters of water used 78% % of liters saved 2,44 kg CO2 eq used 59% % of kg CO2 eq saved 13794 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/min-t-shirt-man-asphalt-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Light
+                        Grey
+                        Min
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; LIGHT GREY MIN T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Min T-Shirt is made of 50% recycled cotton and 50% organic cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. For every product sold from our Because There Is No Planet B® collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,700 tonnes of waste from the ocean. Simple, elegant and ideal for everyday use. • Regular cut • Round neck • Ribbed collar • Print on the front • Garment dyed • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+364,88 liters of water used 78% % of liters saved 2,44 kg CO2 eq used 59% % of kg CO2 eq saved 13794 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+364,88 liters of water used 78% % of liters saved 2,44 kg CO2 eq used 59% % of kg CO2 eq saved 13794 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/min-t-shirt-man-ice-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>White
+                        Min
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; WHITE MIN T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Min T-Shirt is made of 50% recycled cotton and 50% organic cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. For every product sold from our Because There Is No Planet B® collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,700 tonnes of waste from the ocean. Simple, elegant and ideal for everyday use. • Regular cut • Round neck • Ribbed collar • Print on the front • Garment dyed • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+364,88 liters of water used 78% % of liters saved 2,44 kg CO2 eq used 59% % of kg CO2 eq saved 13794 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+364,88 liters of water used 78% % of liters saved 2,44 kg CO2 eq used 59% % of kg CO2 eq saved 13794 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/min-t-shirt-man-white-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Green
+                        Min
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s t-shirts &gt; GREEN MIN T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Min T-shirt is made from 50% organic cotton and 50% recycled cotton, ECOALF’s alternative to virgin cotton. It has our motto Because There Is No Planet B® on the back. For every product sold from this collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,450 tonnes of waste from the ocean. Primary fabric: 50% recycled cotton/50% organic cotton Regular fit Round neck Ribbed fabric on the collar Text: "Because there is no planet B" ECOALF logo on the sleeve Vegan
+[SUSTAINABILITY REPORT]
+245,56 liters of water used 89% % of liters saved 4,31 kg CO2 eq used 62% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+245,56 liters of water used 89% % of liters saved 4,31 kg CO2 eq used 62% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/minalf-back-t-shirt-man-dustygreen-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Blue
+                        Min
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s t-shirts &gt; BLUE MIN T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Min T-shirt is made from 50% organic cotton and 50% recycled cotton, ECOALF’s alternative to virgin cotton. It has our motto Because There Is No Planet B® on the back. For every product sold from this collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,450 tonnes of waste from the ocean. Primary fabric: 50% recycled cotton/50% organic cotton Regular fit Round neck Ribbed fabric on the collar Text: "Because there is no planet B" ECOALF logo on the sleeve Vegan
+[SUSTAINABILITY REPORT]
+245,56 liters of water used 89% % of liters saved 4,31 kg CO2 eq used 62% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+245,56 liters of water used 89% % of liters saved 4,31 kg CO2 eq used 62% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/minalf-back-t-shirt-man-steelblue-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Green
+                        Min
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Min T-shirt is made from 50% organic cotton and 50% recycled cotton, ECOALF’s alternative to virgin cotton. It has our motto Because There Is No Planet B® on the back. For every product sold from this collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,450 tonnes of waste from the ocean. Primary fabric: 50% recycled cotton/50% organic cotton Regular fit Round neck Ribbed fabric on the collar Text: "Because there is no planet B" ECOALF logo on the sleeve Vegan
+[SUSTAINABILITY REPORT]
+245,56 liters of water used 89% % of liters saved 4,31 kg CO2 eq used 62% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+245,56 liters of water used 89% % of liters saved 4,31 kg CO2 eq used 62% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/minalf-back-t-shirt-man-toast-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Purple
+                        Min
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s t-shirts &gt; PURPLE MIN T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Min T-shirt, made of 50% recycled cotton and 50% organic cotton, stands out for its print on the front with the message ‘Because there is no planet B’, adding something different to your wardrobe. For every product sold from our Because There Is No Planet B® collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,700 tonnes of waste from the ocean. Primary fabric: 50% Recycled Cotton/50% Organic Cotton Regular Fit Round neck Ribbed collar Brand printed on the sleeve Front print Dyed and garment-washed (White, Dusty Mauve &amp; Dusty Blue) Text: "Because there is no planet B" Vegan
+[SUSTAINABILITY REPORT]
+323,33 liters of water used 73% % of liters saved 2,33 kg CO2 eq used 44% % of kg CO2 eq saved 14940,83 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+323,33 liters of water used 73% % of liters saved 2,33 kg CO2 eq used 44% % of kg CO2 eq saved 14940,83 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/minalf-t-shirt-man-dusty-mauve-ss25</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>White
+                        Min
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s t-shirts &gt; WHITE MIN T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Min T-shirt, made of 50% recycled cotton and 50% organic cotton, stands out for its print on the front with the message ‘Because there is no planet B’, adding something different to your wardrobe. For every product sold from our Because There Is No Planet B® collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,700 tonnes of waste from the ocean. Primary fabric: 50% Recycled Cotton/50% Organic Cotton Regular Fit Round neck Ribbed collar Brand printed on the sleeve Front print Dyed and garment-washed (White, Dusty Mauve &amp; Dusty Blue) Text: "Because there is no planet B" Vegan
+[SUSTAINABILITY REPORT]
+323,33 liters of water used 73% % of liters saved 2,33 kg CO2 eq used 44% % of kg CO2 eq saved 14940,83 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+323,33 liters of water used 73% % of liters saved 2,33 kg CO2 eq used 44% % of kg CO2 eq saved 14940,83 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/minalf-t-shirt-man-white-ss25</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Black
+                        Mopane
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>109,90€</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; BLACK MOPANE SWEATER</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Mopane sweater is made of 55% organic cotton and 45% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Timeless, elegant and ideal for everyday use. • Regular cut • 12GG smooth knit • Ribbed cuffs and hem • Open neck with collar • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+660,52 liters of water used 79% % of liters saved 5,18 kg CO2 eq used 49% % of kg CO2 eq saved 24720,31 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+660,52 liters of water used 79% % of liters saved 5,18 kg CO2 eq used 49% % of kg CO2 eq saved 24720,31 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mopane-knit-man-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Mopane
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>109,90€</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; DARK GREEN MOPANE SWEATER</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Mopane sweater is made of 55% organic cotton and 45% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Timeless, elegant and ideal for everyday use. • Regular cut • 12GG smooth knit • Ribbed cuffs and hem • Open neck with collar • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+660,52 liters of water used 79% % of liters saved 5,18 kg CO2 eq used 49% % of kg CO2 eq saved 24720,31 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+660,52 liters of water used 79% % of liters saved 5,18 kg CO2 eq used 49% % of kg CO2 eq saved 24720,31 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mopane-knit-man-dark-pine-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Blue
+                        Moroto
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>189,90€</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; BLUE MOROTO SWEATER</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Moroto sweater is made of 95% recycled wool and 5% polyamide. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and ideal for everyday use. • Regular cut • Front pockets • Front button fastening • Shirt collar • Interior branding
+[SUSTAINABILITY REPORT]
+262,24 liters of water used 77% % of liters saved 9,24 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+262,24 liters of water used 77% % of liters saved 9,24 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/moroto-knit-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Grey
+                        Moroto
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>189,90€</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; GREY MOROTO SWEATER</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Moroto sweater is made of 95% recycled wool and 5% polyamide. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and ideal for everyday use. • Regular cut • Front pockets • Front button fastening • Shirt collar • Interior branding
+[SUSTAINABILITY REPORT]
+262,24 liters of water used 77% % of liters saved 9,24 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+262,24 liters of water used 77% % of liters saved 9,24 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/moroto-knit-man-medium-grey-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Beige
+                        Mountain
+                        Socks</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>19,90€</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BEIGE MOUNTAIN SOCKS</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Mountain socks are made of 30% Recycled Polyamide, 30% Recycled Wool, 30% TENCEL™ Lyocell and 10% Recycled Cashmere. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Extremely comfortable, making them ideal for everyday wear. • Two size socks made of a recycled blend that provides a warm and soft feel • Medium fit, contrasting toe cap and double stripe on the side of the cuff • Distinctive print on the sole of the foot • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mountain-socks-beige-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Brown
+                        Mountain
+                        Socks</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>19,90€</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BROWN MOUNTAIN SOCKS</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Mountain socks are made of 30% Recycled Polyamide, 30% Recycled Wool, 30% TENCEL™ Lyocell and 10% Recycled Cashmere. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Extremely comfortable, making them ideal for everyday wear. • Two size socks made of a recycled blend that provides a warm and soft feel • Medium fit, contrasting toe cap and double stripe on the side of the cuff • Distinctive print on the sole of the foot • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mountain-socks-dark-brown-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Red
+                        Mountain
+                        Socks</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>19,90€</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; RED MOUNTAIN SOCKS</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Mountain socks are made of 30% Recycled Polyamide, 30% Recycled Wool, 30% TENCEL™ Lyocell and 10% Recycled Cashmere. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Extremely comfortable, making them ideal for everyday wear. • Two size socks made of a recycled blend that provides a warm and soft feel • Medium fit, contrasting toe cap and double stripe on the side of the cuff • Distinctive print on the sole of the foot • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mountain-socks-dark-red-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Grey
+                        Mountain
+                        Socks</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>19,90€</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; GREY MOUNTAIN SOCKS</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Mountain socks are made of 30% Recycled Polyamide, 30% Recycled Wool, 30% TENCEL™ Lyocell and 10% Recycled Cashmere. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Extremely comfortable, making them ideal for everyday wear. • Two size socks made of a recycled blend that provides a warm and soft feel • Medium fit, contrasting toe cap and double stripe on the side of the cuff • Distinctive print on the sole of the foot • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mountain-socks-grey-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Blue
+                        Mountain
+                        Socks</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>19,90€</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BLUE MOUNTAIN SOCKS</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Mountain socks are made of 30% Recycled Polyamide, 30% Recycled Wool, 30% TENCEL™ Lyocell and 10% Recycled Cashmere. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Extremely comfortable, making them ideal for everyday wear. • Two size socks made of a recycled blend that provides a warm and soft feel • Medium fit, contrasting toe cap and double stripe on the side of the cuff • Distinctive print on the sole of the foot • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mountain-socks-ink-blue-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Khaki
+                        Mountain
+                        Socks</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>19,90€</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; KHAKI MOUNTAIN SOCKS</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Mountain socks are made of 30% Recycled Polyamide, 30% Recycled Wool, 30% TENCEL™ Lyocell and 10% Recycled Cashmere. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Extremely comfortable, making them ideal for everyday wear. • Two size socks made of a recycled blend that provides a warm and soft feel • Medium fit, contrasting toe cap and double stripe on the side of the cuff • Distinctive print on the sole of the foot • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mountain-socks-khaki-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Mustard
+                        Mountain
+                        Socks</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>19,90€</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; MUSTARD MOUNTAIN SOCKS</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Mountain socks are made of 30% Recycled Polyamide, 30% Recycled Wool, 30% TENCEL™ Lyocell and 10% Recycled Cashmere. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Extremely comfortable, making them ideal for everyday wear. • Two size socks made of a recycled blend that provides a warm and soft feel • Medium fit, contrasting toe cap and double stripe on the side of the cuff • Distinctive print on the sole of the foot • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mountain-socks-mustard-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Mountain
+                        Socks</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>19,90€</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; NAVY BLUE MOUNTAIN SOCKS</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Mountain socks are made of 30% Recycled Polyamide, 30% Recycled Wool, 30% TENCEL™ Lyocell and 10% Recycled Cashmere. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Extremely comfortable, making them ideal for everyday wear. • Two size socks made of a recycled blend that provides a warm and soft feel • Medium fit, contrasting toe cap and double stripe on the side of the cuff • Distinctive print on the sole of the foot • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mountain-socks-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Pink
+                        Mountain
+                        Socks</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>19,90€</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; PINK MOUNTAIN SOCKS</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Mountain socks are made of 30% Recycled Polyamide, 30% Recycled Wool, 30% TENCEL™ Lyocell and 10% Recycled Cashmere. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Extremely comfortable, making them ideal for everyday wear. • Two size socks made of a recycled blend that provides a warm and soft feel • Medium fit, contrasting toe cap and double stripe on the side of the cuff • Distinctive print on the sole of the foot • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mountain-socks-rosewood-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Green
+                        Mountain
+                        Socks</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>19,90€</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; GREEN MOUNTAIN SOCKS</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Mountain socks are made of 30% Recycled Polyamide, 30% Recycled Wool, 30% TENCEL™ Lyocell and 10% Recycled Cashmere. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. TENCEL™ Lyocell fibres come from wood pulp from certified forests and closed-loop processes in accordance with the most stringent environmental standards. Extremely comfortable, making them ideal for everyday wear. • Two size socks made of a recycled blend that provides a warm and soft feel • Medium fit, contrasting toe cap and double stripe on the side of the cuff • Distinctive print on the sole of the foot • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+93,98 liters of water used 81% % of liters saved 3,05 kg CO2 eq used 74% % of kg CO2 eq saved 1510,3 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/mountain-socks-toast-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Nalon
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>109,90€</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; DARK GREY NALON TROUSERS</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Nalon trousers are made of 100% recycled polyamide. Using recycled cotton leads to significant savings in water consumption, not to mention giving textile waste a new lease of life. In doing so, we avoid using virgin cotton, reducing the pressure on natural materials. With a loose fit, they are comfortable and versatile for everyday wear. • Loose Fit • Mid-rise waist • Patch pockets at the front • Zip in the centre • Button at the waist • Patch pockets at the back • Adjustable belt loop at the waist • Garment dyed and washed • Brand trimming • Vegan
+[SUSTAINABILITY REPORT]
+962,87 liters of water used 76% % of liters saved 6,91 kg CO2 eq used 48% % of kg CO2 eq saved 20769,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+962,87 liters of water used 76% % of liters saved 6,91 kg CO2 eq used 48% % of kg CO2 eq saved 20769,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/nalon-pants-man-asphalt-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Beige
+                        Nalon
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>109,90€</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; BEIGE NALON TROUSERS</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Nalon trousers are made of 100% recycled polyamide. Using recycled cotton leads to significant savings in water consumption, not to mention giving textile waste a new lease of life. In doing so, we avoid using virgin cotton, reducing the pressure on natural materials. With a loose fit, they are comfortable and versatile for everyday wear. • Loose Fit • Mid-rise waist • Patch pockets at the front • Zip in the centre • Button at the waist • Patch pockets at the back • Adjustable belt loop at the waist • Garment dyed and washed • Brand trimming • Vegan
+[SUSTAINABILITY REPORT]
+962,87 liters of water used 76% % of liters saved 6,91 kg CO2 eq used 48% % of kg CO2 eq saved 20769,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+962,87 liters of water used 76% % of liters saved 6,91 kg CO2 eq used 48% % of kg CO2 eq saved 20769,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/nalon-pants-man-washed-stone-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Blue
+                        Nevo
+                        Vest</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>169,90€</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BLUE NEVO VEST</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Nevo vest is made of 100% recycled Polyamide and 100% recycled Polyester filling. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Simple, elegant and ideal for any occasion. • Regular fit • Central front fastening with personalised zip • Pockets on the central front placket with concealed press studs in the side seams • Ribbed collar • Branded trims • Interior branding • Water-repellent • Vegan
+[SUSTAINABILITY REPORT]
+272,99 liters of water used 52% % of liters saved 7,6 kg CO2 eq used 43% % of kg CO2 eq saved 22045,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+272,99 liters of water used 52% % of liters saved 7,6 kg CO2 eq used 43% % of kg CO2 eq saved 22045,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/nevo-vest-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Beige
+                        Nevo
+                        Vest</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>169,90€</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BEIGE NEVO VEST</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Nevo vest is made of 100% recycled Polyamide and 100% recycled Polyester filling. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Simple, elegant and ideal for any occasion. • Regular fit • Central front fastening with personalised zip • Pockets on the central front placket with concealed press studs in the side seams • Ribbed collar • Branded trims • Interior branding • Water-repellent • Vegan
+[SUSTAINABILITY REPORT]
+272,99 liters of water used 52% % of liters saved 7,6 kg CO2 eq used 43% % of kg CO2 eq saved 22045,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+272,99 liters of water used 52% % of liters saved 7,6 kg CO2 eq used 43% % of kg CO2 eq saved 22045,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/nevo-vest-man-dune-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Light
+                        Grey
+                        Beret
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>179,90€</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; LIGHT GREY BERET JACKET</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Beret single-material jacket is made from 100% recycled polyester derived from recycled plastic bottles that we then transform into fibres to offer top-quality and environmentally-friendly clothing. A water-repellent, comfortable and sustainable jacket. Primary fabric: 100% recycled polyester Regular fit 100% recycled polyester 100% recycled polyester Front zip closure Elasticated cuffs Side pockets with zips Water-repellent PFC-free Vegan
+[SUSTAINABILITY REPORT]
+79,89 liters of water used 28% % of liters saved 7,85 kg CO2 eq used 42% % of kg CO2 eq saved 93 people behind with safe work &amp; better livelihoods + 62 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+79,89 liters of water used 28% % of liters saved 7,85 kg CO2 eq used 42% % of kg CO2 eq saved 93 people behind with safe work &amp; better livelihoods + 62 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/new-beretalf-jacket-man-lightgrey-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Blue
+                        Beret
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>179,90€</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Beret single-material jacket is made from 100% recycled polyester derived from recycled plastic bottles that we then transform into fibres to offer top-quality and environmentally-friendly clothing. A water-repellent, comfortable and sustainable jacket. Primary fabric: 100% recycled polyester Regular fit 100% recycled polyester 100% recycled polyester Front zip closure Elasticated cuffs Side pockets with zips Water-repellent PFC-free Vegan
+[SUSTAINABILITY REPORT]
+79,89 liters of water used 28% % of liters saved 7,85 kg CO2 eq used 42% % of kg CO2 eq saved 93 people behind with safe work &amp; better livelihoods + 62 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+79,89 liters of water used 28% % of liters saved 7,85 kg CO2 eq used 42% % of kg CO2 eq saved 93 people behind with safe work &amp; better livelihoods + 62 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/new-beretalf-jacket-man-steelblue-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Iceberg
+                        Green
+                        New
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>449,90€</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; ICEBERG GREEN NEW COAT</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The New Iceberg coat is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). It has a 100% recycled polyester lining and 100% recycled PrimaLoft® polyester filling. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. • Regular cut • Front placket with concealed magnets and two-way zip fastening on the front • Front pockets with zip • Front flap pockets with concealed magnets • Adjustable hood with drawstring and stoppers • Inside pocket with zip • Elasticated inner cuffs • Heat-sealed seams inside • Internal shoulder straps • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1266,69 liters of water used 37% % of liters saved 18,31 kg CO2 eq used 46% % of kg CO2 eq saved 22701,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1266,69 liters of water used 37% % of liters saved 18,31 kg CO2 eq used 46% % of kg CO2 eq saved 22701,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/new-iceberg-jacket-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Iceberg
+                        Black
+                        New
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>449,90€</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; ICEBERG BLACK NEW COAT</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The New Iceberg coat is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). It has a 100% recycled polyester lining and 100% recycled PrimaLoft® polyester filling. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. Elegant and ideal for cold and wet days. • Front placket with concealed magnets and two-way zip fastening • Front pockets with zip • Front flap pockets with concealed magnets • Adjustable good with drawstring and stoppers • Inside pocket with zip • Elasticated inner cuffs • Heat-sealed seams inside • Internal shoulder straps • Branded trims • Vegan
+[SUSTAINABILITY REPORT]
+1266,69 liters of water used 37% % of liters saved 18,31 kg CO2 eq used 46% % of kg CO2 eq saved 22701,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1266,69 liters of water used 37% % of liters saved 18,31 kg CO2 eq used 46% % of kg CO2 eq saved 22701,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/new-iceberg-jacket-man-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Red
+                        New
+                        Iceberg
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>449,90€</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; RED NEW ICEBERG COAT</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The New Iceberg coat is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). It has a 100% recycled polyester lining and 100% recycled PrimaLoft® polyester filling. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. • Regular cut • Front placket with concealed magnets and two-way zip fastening on the front • Front pockets with zip • Front flap pockets with concealed magnets • Adjustable hood with drawstring and stoppers • Inside pocket with zip • Elasticated inner cuffs • Heat-sealed seams inside • Internal shoulder straps • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1266,69 liters of water used 37% % of liters saved 18,31 kg CO2 eq used 46% % of kg CO2 eq saved 22701,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1266,69 liters of water used 37% % of liters saved 18,31 kg CO2 eq used 46% % of kg CO2 eq saved 22701,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/new-iceberg-jacket-man-dark-red-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Blue
+                        New
+                        Iceberg
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>449,90€</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BLUE NEW ICEBERG COAT</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The New Iceberg coat is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). It has a 100% recycled polyester lining and 100% recycled PrimaLoft® polyester filling. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. • Regular cut • Front placket with concealed magnets and two-way zip fastening on the front • Front pockets with zip • Front flap pockets with concealed magnets • Adjustable hood with drawstring and stoppers • Inside pocket with zip • Elasticated inner cuffs • Heat-sealed seams inside • Internal shoulder straps • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1266,69 liters of water used 37% % of liters saved 18,31 kg CO2 eq used 46% % of kg CO2 eq saved 22701,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1266,69 liters of water used 37% % of liters saved 18,31 kg CO2 eq used 46% % of kg CO2 eq saved 22701,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/new-iceberg-jacket-man-steel-blue-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Black
+                        Oslo
+                        Backpack</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>119,90€</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Oslo backpack is made of 100% recycled polyamide. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Perfect for carrying your everyday essential. • Lining: 100% Recycled Polyamide • Straps: 100% Polyester • Number 8 two-way zip, always in black, for the main opening • Distinctive 3K waterproof ripstop fabric • Two extra front pockets with rubber zip for improved waterproof effect • Side adjustable pocket, suitable for bottles • Padded computer compartment at the back, with padded base to protect contents and the laptop • Customised handles in black matte finish • Spacious main interior compartment with mesh closure • Two interior zip pockets for valuables and small belongings (keys, phone, wallet, etc.) • Neoprene padding with padded mesh on back panel and bottom of straps for extra comfort • Shoulder straps can be put away separately for carrying as a handbag • Distinctive waterproof fabric • Rear strap to attach to the handle of a suitcase • Distinctive label on the front • 50 x 32 x 17 cm (Height x Length x Width) • 27.2 litres • Vegan
+[SUSTAINABILITY REPORT]
+270,17 liters of water used 44% % of liters saved 8,59 kg CO2 eq used 39% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+270,17 liters of water used 44% % of liters saved 8,59 kg CO2 eq used 39% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/oslo-backpack-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Green
+                        Oslo
+                        Backpack</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>119,90€</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; GREEN OSLO BACKPACK</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Oslo backpack is made of 100% recycled polyamide. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Perfect for carrying your everyday essential. • Lining: 100% Recycled Polyamide • Straps: 100% Polyester • Number 8 two-way zip, always in black, for the main opening • Distinctive 3K waterproof ripstop fabric • Two extra front pockets with rubber zip for improved waterproof effect • Side adjustable pocket, suitable for bottles • Padded computer compartment at the back, with padded base to protect contents and the laptop • Customised handles in black matte finish • Spacious main interior compartment with mesh closure • Two interior zip pockets for valuables and small belongings (keys, phone, wallet, etc.) • Neoprene padding with padded mesh on back panel and bottom of straps for extra comfort • Shoulder straps can be put away separately for carrying as a handbag • Distinctive waterproof fabric • Rear strap to attach to the handle of a suitcase • Distinctive label on the front • 50 x 32 x 17 cm (Height x Length x Width) • 27.2 litres • Vegan
+[SUSTAINABILITY REPORT]
+270,17 liters of water used 44% % of liters saved 8,59 kg CO2 eq used 39% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+270,17 liters of water used 44% % of liters saved 8,59 kg CO2 eq used 39% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/oslo-backpack-olive-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Black
+                        Oslo
+                        Toiletry
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BLACK OSLO TOILETRY BAG</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Oslo toiletry bag is made of 100% recycled polyamide. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Perfect for carrying your everyday essential. • Lining: 100% Recycled Polyamide • Water-repellent • Number 8 two-way zip, always in black, for the main opening • Distinctive 3K waterproof ripstop fabric • Compartment with wide opening • Spacious main compartment with multiple mesh pockets for storing belongings of any size • Customised handles in matte black finish • Thick and sturdy handle • Distinctive label on the front • 17 x 28 x 9 cm (Height x Length x Width) • Vegan
+[SUSTAINABILITY REPORT]
+66,78 liters of water used 86% % of liters saved 2,06 kg CO2 eq used 61% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+66,78 liters of water used 86% % of liters saved 2,06 kg CO2 eq used 61% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/oslo-toiletry-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Red
+                        Oslo
+                        Toiletry
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; RED OSLO TOILETRY BAG</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Oslo toiletry bag is made of 100% recycled polyamide. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Perfect for carrying your everyday essential. • Lining: 100% Recycled Polyamide • Water-repellent • Number 8 two-way zip, always in black, for the main opening • Distinctive 3K waterproof ripstop fabric • Compartment with wide opening • Spacious main compartment with multiple mesh pockets for storing belongings of any size • Customised handles in matte black finish • Thick and sturdy handle • Distinctive label on the front • 17 x 28 x 9 cm (Height x Length x Width) • Vegan
+[SUSTAINABILITY REPORT]
+66,78 liters of water used 86% % of liters saved 2,06 kg CO2 eq used 61% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+66,78 liters of water used 86% % of liters saved 2,06 kg CO2 eq used 61% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/oslo-toiletry-dark-red-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Green
+                        Oslo
+                        Toiletry
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; GREEN OSLO TOILETRY BAG</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Oslo toiletry bag is made of 100% recycled polyamide. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Perfect for carrying your everyday essential. • Lining: 100% Recycled Polyamide • Water-repellent • Number 8 two-way zip, always in black, for the main opening • Distinctive 3K waterproof ripstop fabric • Compartment with wide opening • Spacious main compartment with multiple mesh pockets for storing belongings of any size • Customised handles in matte black finish • Thick and sturdy handle • Distinctive label on the front • 17 x 28 x 9 cm (Height x Length x Width) • Vegan
+[SUSTAINABILITY REPORT]
+66,78 liters of water used 86% % of liters saved 2,06 kg CO2 eq used 61% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+66,78 liters of water used 86% % of liters saved 2,06 kg CO2 eq used 61% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/oslo-toiletry-olive-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Blue
+                        Otu
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>179,90€</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; BLUE OTU SWEATER</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Otu sweater is made of 95% recycled wool and 5% polyamide. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and ideal for everyday use. • Regular cut • Smooth knit • Central front fastening with personalised zip • Brand details • Kangaroo pocket • Interior branding
+[SUSTAINABILITY REPORT]
+301,23 liters of water used 77% % of liters saved 10,63 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+301,23 liters of water used 77% % of liters saved 10,63 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/otu-knit-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Grey
+                        Otu
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>179,90€</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; GREY OTU SWEATER</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Otu sweater is made of 95% recycled wool and 5% polyamide. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and ideal for everyday use. • Regular cut • Smooth knit • Central front fastening with personalised zip • Brand details • Kangaroo pocket • Interior branding
+[SUSTAINABILITY REPORT]
+301,23 liters of water used 77% % of liters saved 10,63 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+301,23 liters of water used 77% % of liters saved 10,63 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/otu-knit-man-medium-grey-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Black
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BLACK PACHO BAG</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pacho bag is made of 70% Sorona® and 30% recycled polyester. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. • Filling: 100% EVA • Straps: 100% Recycled Polyester • Multi-purpose tote bag in distinctive lightweight fabric • Folds into a perfect roll so it can be easily stored and transported • An elastic band and a button keep the roll closed • Logo visible when rolled up • Distinctive print all over the front • Double handle so it can be carried by hand or over the shoulder • Open inside pocket 37 x 55 x 22 cm (Height x Length x Width) • Vegan
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pacho-bag-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; DARK GREEN PACHO BAG</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pacho bag is made of 70% Sorona® and 30% recycled polyester. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. • Filling: 100% EVA • Straps: 100% Recycled Polyester • Multi-purpose tote bag in distinctive lightweight fabric • Folds into a perfect roll so it can be easily stored and transported • An elastic band and a button keep the roll closed • Logo visible when rolled up • Distinctive print all over the front • Double handle so it can be carried by hand or over the shoulder • Open inside pocket 37 x 55 x 22 cm (Height x Length x Width) • Vegan
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pacho-bag-deep-forest-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Khaki
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; KHAKI PACHO BAG</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pacho bag is made of 70% Sorona® and 30% recycled polyester. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. • Filling: 100% EVA • Straps: 100% Recycled Polyester • Multi-purpose tote bag in distinctive lightweight fabric • Folds into a perfect roll so it can be easily stored and transported • An elastic band and a button keep the roll closed • Logo visible when rolled up • Distinctive print all over the front • Double handle so it can be carried by hand or over the shoulder • Open inside pocket 37 x 55 x 22 cm (Height x Length x Width) • Vegan
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pacho-bag-deep-khaki-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Green
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; GREEN PACHO BAG</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pacho bag is made of 70% Sorona® and 30% recycled polyester. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. • Filling: 100% EVA • Straps: 100% Recycled Polyester • Multi-purpose tote bag in distinctive lightweight fabric • Folds into a perfect roll so it can be easily stored and transported • An elastic band and a button keep the roll closed • Logo visible when rolled up • Distinctive print all over the front • Double handle so it can be carried by hand or over the shoulder • Open inside pocket 37 x 55 x 22 cm (Height x Length x Width) • Vegan
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pacho-bag-martini-olive-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Green
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; GREEN PACHO BAG</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pacho bag is made of 70% polyester and 30% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. • Filling: 100% EVA • Straps: 100% Recycled Polyester • Multi-purpose tote bag in distinctive lightweight fabric • Folds into a perfect roll so it can be easily stored and transported • An elastic band and a button keep the roll closed • Logo visible when rolled up • Distinctive print all over the front • Double handle so it can be carried by hand or over the shoulder • Open inside pocket 37 x 55 x 22 cm (Height x Length x Width) • Vegan
+[SUSTAINABILITY REPORT]
+130,77 liters of water used 76% % of liters saved 2,74 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+130,77 liters of water used 76% % of liters saved 2,74 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pacho-bag-nut-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>White
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; WHITE PACHO BAG</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pacho bag is made of 70% Sorona® and 30% recycled polyester. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. • Filling: 100% EVA • Straps: 100% Recycled Polyester • Multi-purpose tote bag in distinctive lightweight fabric • Folds into a perfect roll so it can be easily stored and transported • An elastic band and a button keep the roll closed • Logo visible when rolled up • Distinctive print all over the front • Double handle so it can be carried by hand or over the shoulder • Open inside pocket 37 x 55 x 22 cm (Height x Length x Width) • Vegan
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pacho-bag-off-white-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Red
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; RED PACHO BAG</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pacho bag is made of 70% Sorona® and 30% recycled polyester. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. • Filling: 100% EVA • Straps: 100% Recycled Polyester • Multi-purpose tote bag in distinctive lightweight fabric • Folds into a perfect roll so it can be easily stored and transported • An elastic band and a button keep the roll closed • Logo visible when rolled up • Distinctive print all over the front • Double handle so it can be carried by hand or over the shoulder • Open inside pocket 37 x 55 x 22 cm (Height x Length x Width) • Vegan
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+98,93 liters of water used 82% % of liters saved 2,77 kg CO2 eq used 55% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pacho-bag-red-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Blue
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BLUE PACHO BAG</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pacho bag is made of 63% recycled polyester and 37% polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. • Filling: 100% EVA • Straps: 100% Recycled Polyester • Multi-purpose tote bag in distinctive lightweight fabric • Folds into a perfect roll so it can be easily stored and transported • An elastic band and a button keep the roll closed • Logo visible when rolled up • Distinctive print all over the front • Double handle so it can be carried by hand or over the shoulder • Open inside pocket 37 x 55 x 22 cm (Height x Length x Width) • Vegan
+[SUSTAINABILITY REPORT]
+119,29 liters of water used 78% % of liters saved 2,57 kg CO2 eq used 58% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+119,29 liters of water used 78% % of liters saved 2,57 kg CO2 eq used 58% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pacho-bag-smokey-blue-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Beige
+                        Pacho
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>35,00€</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BEIGE PACHO BAG</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The iconic Pacho bag with the Because There Is No Planet B® claim in an exclusive collection for comfort and functionality. Made from leftover Ecoalf fabrics, it's designed to take you wherever you go and encourage a sustainable lifestyle. Keep it, reuse it and recycle it. No more single-use plastic bags - choose your favourite colour and take it with you everywhere! For every Pacho bag from the Because There Is No Planet B® collection sold, we will donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already gathered more than 4,200 fishermen and recovered more than 1,700 tons of waste from the ocean. Each bag is equivalent to 3.69 kg of waste collected from the ocean floor. Main fabric: 70% Sorona®/ 30% Recycled Polyester Multi-purpose bag Folds up into a roll, perfect for easy storage and packaging Elastic band and button closure Printed logo Double handle (can be carried in the hand, or slung over the shoulder) Open inner pocket Measurements: 37x55x22cm
+[SUSTAINABILITY REPORT]
+186,07 liters of water used 36% % of liters saved 4,28 kg CO2 eq used 23% % of kg CO2 eq saved 28557 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+186,07 liters of water used 36% % of liters saved 4,28 kg CO2 eq used 23% % of kg CO2 eq saved 28557 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pachoalf-bag-white-sand-ss25</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Paris
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; NAVY BLUE PARIS TRAINERS</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Paris trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Perfect for adding a touch of elegance without sacrificing comfort. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 90% Recycled PU / 10% Polyester • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan • Produced with 8% renewable solar energy
+[SUSTAINABILITY REPORT]
+541,57 liters of water used 24% % of liters saved 6,6 kg CO2 eq used 28% % of kg CO2 eq saved 21924,21 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+541,57 liters of water used 24% % of liters saved 6,6 kg CO2 eq used 28% % of kg CO2 eq saved 21924,21 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/paris-sneakers-man-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Green
+                        Parko
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>375,00€</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; GREEN PARKO COAT</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Parko coat is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). It has a 100% recycled polyester lining and 100% recycled PrimaLoft® polyester filling. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. Elegant and ideal for cold and wet days. • Water-repellent • 10K Waterproof • 5K Breathable • PFC-free • Regular cut • Front placket with concealed press studs and two-way zip closure • Front pocket with zip • Detachable hood with zip • Adjustable hood with stoppers • Pocket with concealed zip on the left sleeve • Heat-sealed seams inside • Inside pocket with zip • Elasticated inner cuffs • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+457,25 liters of water used 48% % of liters saved 6,78 kg CO2 eq used 54% % of kg CO2 eq saved 22323,47 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+457,25 liters of water used 48% % of liters saved 6,78 kg CO2 eq used 54% % of kg CO2 eq saved 22323,47 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/parko-jacket-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Black
+                        Parko
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>375,00€</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BLACK PARKO COAT</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Parko coat is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). It has a 100% recycled polyester lining and 100% recycled PrimaLoft® polyester filling. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. Elegant and ideal for cold and wet days. • Water-repellent • 10K Waterproof • 5K Breathable • PFC-free • Regular cut • Front placket with concealed press studs and two-way zip closure • Front pocket with zip • Detachable hood with zip • Adjustable hood with stoppers • Pocket with concealed zip on the left sleeve • Heat-sealed seams inside • Inside pocket with zip • Elasticated inner cuffs • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+457,25 liters of water used 48% % of liters saved 6,78 kg CO2 eq used 54% % of kg CO2 eq saved 22323,47 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+457,25 liters of water used 48% % of liters saved 6,78 kg CO2 eq used 54% % of kg CO2 eq saved 22323,47 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/parko-jacket-man-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Parko
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>375,00€</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; NAVY BLUE PARKO COAT</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Parko coat is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). It has a 100% recycled polyester lining and 100% recycled PrimaLoft® polyester filling. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. Elegant and ideal for cold and wet days. • Water-repellent • 10K Waterproof • 5K Breathable • PFC-free • Regular cut • Front placket with concealed press studs and two-way zip closure • Front pocket with zip • Detachable hood with zip • Adjustable hood with stoppers • Pocket with concealed zip on the left sleeve • Heat-sealed seams inside • Inside pocket with zip • Elasticated inner cuffs • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+457,25 liters of water used 48% % of liters saved 6,78 kg CO2 eq used 54% % of kg CO2 eq saved 22323,47 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+457,25 liters of water used 48% % of liters saved 6,78 kg CO2 eq used 54% % of kg CO2 eq saved 22323,47 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/parko-jacket-man-blue-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Khaki
+                        Parko
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>375,00€</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; KHAKI PARKO COAT</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Parko coat is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). It has a 100% recycled polyester lining and 100% recycled PrimaLoft® polyester filling. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. Elegant and ideal for cold and wet days. • Water-repellent • 10K Waterproof • 5K Breathable • PFC-free • Regular cut • Front placket with concealed press studs and two-way zip closure • Front pocket with zip • Detachable hood with zip • Adjustable hood with stoppers • Pocket with concealed zip on the left sleeve • Heat-sealed seams inside • Inside pocket with zip • Elasticated inner cuffs • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+457,25 liters of water used 48% % of liters saved 6,78 kg CO2 eq used 54% % of kg CO2 eq saved 22323,47 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+457,25 liters of water used 48% % of liters saved 6,78 kg CO2 eq used 54% % of kg CO2 eq saved 22323,47 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/parko-jacket-man-dark-olive-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Parko
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>375,00€</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; DARK GREEN PARKO COAT</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Parko coat is made using post-consumer clothing and our Ocean Yarn, made with bottles recovered from the ocean thanks to the Ecoalf Foundation. The Upcycling the Oceans project brings together more than 4,200 fishermen from all around the Mediterranean Sea and has collected over 1,500 tonnes of waste since 2015. A warm, comfortable and durable garment, a wardrobe essential for combatting the cold while combining fashion with sustainability. Primary fabric: 58% “Hilo de Mar” (recycled polyester)/42% recycled polyester Regular fit 100% recycled polyester Two-way front zip closure Front zip closure Detachable hood with zip Adjustable hood with stoppers Zipped pocket on the left sleeve Heat-sealed seams inside Inside pocket with zip Elasticated cuffs ECOALF logo on the sleeve 10K Waterproof 5K Breathable PFC-free Vegan
+[SUSTAINABILITY REPORT]
+134,18 liters of water used 25% % of liters saved 12,98 kg CO2 eq used 41% % of kg CO2 eq saved 93 people behind with safe work &amp; better livelihoods + 62 processes from design to sale in a product ethically traded 23.007 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+134,18 liters of water used 25% % of liters saved 12,98 kg CO2 eq used 41% % of kg CO2 eq saved 93 people behind with safe work &amp; better livelihoods + 62 processes from design to sale in a product ethically traded 23.007 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/parkoalf-jacket-man-woodland-green-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Green
+                        Pasu
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>275,00€</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; GREEN PASU COAT</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pasu coat is made of 100% recycled polyester, has a 100% recycled polyester lining and 100% recycled polyester filling. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Simple, elegant and perfect for cold and wet weather. • Regular fit • Falls above the knee • Front zip closure • Front pockets with zip • Adjustable good with drawstring and stoppers • Inside pocket with zip • Branded trims • Interior branding • Water-repellent • 10K Waterproof • 10K Breathable • PFC-free • Vegan
+[SUSTAINABILITY REPORT]
+518,82 liters of water used 49% % of liters saved 10,14 kg CO2 eq used 43% % of kg CO2 eq saved 22028,8 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+518,82 liters of water used 49% % of liters saved 10,14 kg CO2 eq used 43% % of kg CO2 eq saved 22028,8 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pasu-jacket-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Black
+                        Pasu
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>275,00€</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BLACK PASU COAT</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pasu coat is made of 100% recycled polyester, has a 100% recycled polyester lining and 100% recycled polyester filling. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Simple, elegant and perfect for cold and wet weather. • Regular fit • Falls above the knee • Front zip closure • Front pockets with zip • Adjustable good with drawstring and stoppers • Inside pocket with zip • Branded trims • Interior branding • Water-repellent • 10K Waterproof • 10K Breathable • PFC-free • Vegan
+[SUSTAINABILITY REPORT]
+518,82 liters of water used 49% % of liters saved 10,14 kg CO2 eq used 43% % of kg CO2 eq saved 22028,8 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+518,82 liters of water used 49% % of liters saved 10,14 kg CO2 eq used 43% % of kg CO2 eq saved 22028,8 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pasu-jacket-man-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Blue
+                        Pasu
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>275,00€</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BLUE PASU COAT</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pasu Coat is made of 100% recycled polyester, has a 100% recycled polyester lining and 100% recycled polyester filling. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Simple, elegant and perfect for cold and wet weather. • Regular fit • Falls above the knee • Front zip closure • Front pockets with zip • Adjustable good with drawstring and stoppers • Inside pocket with zip • Branded trims • Interior branding • Water-repellent • 10K Waterproof • 10K Breathable • PFC-free • Vegan
+[SUSTAINABILITY REPORT]
+518,82 liters of water used 49% % of liters saved 10,14 kg CO2 eq used 43% % of kg CO2 eq saved 22028,8 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+518,82 liters of water used 49% % of liters saved 10,14 kg CO2 eq used 43% % of kg CO2 eq saved 22028,8 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pasu-jacket-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Beige
+                        Pasu
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>275,00€</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BEIGE PASU COAT</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pasu coat is made of 100% recycled polyester, has a 100% recycled polyester lining and 100% recycled polyester filling. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Simple, elegant and perfect for cold and wet weather. • Regular fit • Falls above the knee • Front zip closure • Front pockets with zip • Adjustable good with drawstring and stoppers • Inside pocket with zip • Branded trims • Interior branding • Water-repellent • 10K Waterproof • 10K Breathable • PFC-free • Vegan
+[SUSTAINABILITY REPORT]
+518,82 liters of water used 49% % of liters saved 10,14 kg CO2 eq used 43% % of kg CO2 eq saved 22028,8 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+518,82 liters of water used 49% % of liters saved 10,14 kg CO2 eq used 43% % of kg CO2 eq saved 22028,8 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pasu-jacket-man-dune-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Green
+                        Pasu
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>275,00€</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; GREEN PASU COAT</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pasu coat is waterproof and made from 100% recycled polyester from plastic bottles (PET). By converting used plastic bottles into recycled polyester, we manage to simplify the production process, which translates into significant savings of CO2 emissions. Main fabric: 100% recycled polyester Regular fit 3/4 length Front zip fastening Side zip pockets Adjustable hood with drawstring and stoppers Inside zip pocket ECOALF logo on the zip and sleeve Water repellent PFC free Vegan
+[SUSTAINABILITY REPORT]
+138,03 liters of water used 23% % of liters saved 13,66 kg CO2 eq used 39% % of kg CO2 eq saved 80 people behind with safe work &amp; better livelihoods + 53 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+138,03 liters of water used 23% % of liters saved 13,66 kg CO2 eq used 39% % of kg CO2 eq saved 80 people behind with safe work &amp; better livelihoods + 53 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pasualf-jacket-man-dark-olive-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Pasu
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>275,00€</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pasu coat is waterproof and made from 100% recycled polyester from plastic bottles (PET). By converting used plastic bottles into recycled polyester, we manage to simplify the production process, which translates into significant savings of CO2 emissions. Main fabric: 100% recycled polyester Regular fit 3/4 length Front zip fastening Side zip pockets Adjustable hood with drawstring and stoppers Inside zip pocket ECOALF logo on the zip and sleeve Water repellent PFC free Vegan
+[SUSTAINABILITY REPORT]
+138,03 liters of water used 23% % of liters saved 13,66 kg CO2 eq used 39% % of kg CO2 eq saved 80 people behind with safe work &amp; better livelihoods + 53 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+138,03 liters of water used 23% % of liters saved 13,66 kg CO2 eq used 39% % of kg CO2 eq saved 80 people behind with safe work &amp; better livelihoods + 53 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pasualf-jacket-man-woodland-green-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Black
+                        Patch
+                        Cap</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>29,90€</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S CAPS &gt; BLACK PATCH CAP</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Patch cap is made of 70% organic cotton and 30% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Timeless and ideal for everyday use. • Size 59 (standard European L size for men) • Baseball style • Heat-sealed signature label • Black anti-bronze buckle at the back for size adjustment • Vegan
+[SUSTAINABILITY REPORT]
+1884,1 liters of water used 39% % of liters saved 2,52 kg CO2 eq used 57% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1884,1 liters of water used 39% % of liters saved 2,52 kg CO2 eq used 57% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/patch-cap-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Patch
+                        Cap</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>29,90€</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S CAPS &gt; NAVY BLUE PATCH CAP</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Patch cap is made of 70% organic cotton and 30% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Timeless and ideal for everyday use. • Size 59 (standard European L size for men) • Baseball style • Heat-sealed signature label • Black anti-bronze buckle at the back for size adjustment • Vegan
+[SUSTAINABILITY REPORT]
+1884,1 liters of water used 39% % of liters saved 2,52 kg CO2 eq used 57% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1884,1 liters of water used 39% % of liters saved 2,52 kg CO2 eq used 57% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/patch-cap-dark-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Red
+                        Patch
+                        Cap</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>29,90€</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S CAPS &gt; RED PATCH CAP</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Patch cap is made of 70% organic cotton and 30% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Timeless and ideal for everyday use. • Size 59 (standard European L size for men) • Baseball style • Heat-sealed signature label • Black anti-bronze buckle at the back for size adjustment • Vegan
+[SUSTAINABILITY REPORT]
+1884,1 liters of water used 39% % of liters saved 2,52 kg CO2 eq used 57% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1884,1 liters of water used 39% % of liters saved 2,52 kg CO2 eq used 57% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/patch-cap-dark-red-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Green
+                        Patch
+                        Cap</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>29,90€</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S CAPS &gt; GREEN PATCH CAP</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Patch cap is made of 70% organic cotton and 30% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Timeless and ideal for everyday use. • Size 59 (standard European L size for men) • Baseball style • Heat-sealed signature label • Black anti-bronze buckle at the back for size adjustment • Vegan
+[SUSTAINABILITY REPORT]
+1884,1 liters of water used 39% % of liters saved 2,52 kg CO2 eq used 57% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1884,1 liters of water used 39% % of liters saved 2,52 kg CO2 eq used 57% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/patch-cap-olive-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Patrick
+                        Polo
+                        Shirt</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>89,90€</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable Men's Polo Shirts &gt; DARK GREY PATRICK POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Patrick polo shirt is made of 50% organic cotton and 50% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Organic cotton cultivation avoids using pesticides and fertilisers that are potentially harmful to health and the environment, as well as staying away from genetically modified seeds, striving to curb biodiversity loss. Simple, elegant and perfect for any occasion. • Regular cut • Central front placket with buttons • Italian collar • Branded trims • Garment dyed • Button fastening • Interior branding • Vegan • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/patrick-polo-man-asphalt-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Green
+                        Patrick
+                        Polo
+                        Shirt</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>89,90€</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable Men's Polo Shirts &gt; GREEN PATRICK POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Patrick polo shirt is made of 50% organic cotton and 50% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Organic cotton cultivation avoids using pesticides and fertilisers that are potentially harmful to health and the environment, as well as staying away from genetically modified seeds, striving to curb biodiversity loss. Simple, elegant and perfect for any occasion. • Regular cut • Central front placket with buttons • Italian collar • Branded trims • Garment dyed • Button fastening • Interior branding • Vegan • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/patrick-polo-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Blue
+                        Patrick
+                        Polo
+                        Shirt</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>89,90€</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable Men's Polo Shirts &gt; BLUE PATRICK POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Patrick polo shirt is made of 50% organic cotton and 50% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Organic cotton cultivation avoids using pesticides and fertilisers that are potentially harmful to health and the environment, as well as staying away from genetically modified seeds, striving to curb biodiversity loss. Simple, elegant and perfect for any occasion. • Regular cut • Central front placket with buttons • Italian collar • Branded trims • Garment dyed • Button fastening • Interior branding • Vegan • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/patrick-polo-man-blue-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Patrick
+                        Polo
+                        Shirt</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>89,90€</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable Men's Polo Shirts &gt; NAVY BLUE PATRICK POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Patrick polo shirt is made of 50% organic cotton and 50% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Organic cotton cultivation avoids using pesticides and fertilisers that are potentially harmful to health and the environment, as well as staying away from genetically modified seeds, striving to curb biodiversity loss. Simple, elegant and perfect for any occasion. • Regular cut • Central front placket with buttons • Italian collar • Branded trims • Garment dyed • Button fastening • Interior branding • Vegan • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/patrick-polo-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Light
+                        Grey
+                        Patrick
+                        Polo
+                        Shirt</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>89,90€</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable Men's Polo Shirts &gt; LIGHT GREY PATRICK POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Patrick polo shirt is made of 50% organic cotton and 50% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Organic cotton cultivation avoids using pesticides and fertilisers that are potentially harmful to health and the environment, as well as staying away from genetically modified seeds, striving to curb biodiversity loss. Simple, elegant and perfect for any occasion. • Regular cut • Central front placket with buttons • Italian collar • Branded trims • Garment dyed • Button fastening • Interior branding • Vegan • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/patrick-polo-man-ice-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>White
+                        Patrick
+                        Polo
+                        Shirt</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>89,90€</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable Men's Polo Shirts &gt; WHITE PATRICK POLO SHIRT</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Patrick polo shirt is made of 50% organic cotton and 50% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Organic cotton cultivation avoids using pesticides and fertilisers that are potentially harmful to health and the environment, as well as staying away from genetically modified seeds, striving to curb biodiversity loss. Simple, elegant and perfect for any occasion. • Regular cut • Central front placket with buttons • Italian collar • Branded trims • Garment dyed • Button fastening • Interior branding • Vegan • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+709,27 liters of water used 79% % of liters saved 6,06 kg CO2 eq used 48% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/patrick-polo-man-white-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Red
+                        Pleta
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; RED PLETA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pleta trainers are made of 100% recycled polyamide. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Extremely comfortable and perfect to make your outfit stand out. • Primary fabric: 100% Recycled Polyamide • Secondary fabric: 100% Polyester • Lining: 100% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+598,14 liters of water used 27% % of liters saved 6,14 kg CO2 eq used 27% % of kg CO2 eq saved 19498,89 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+598,14 liters of water used 27% % of liters saved 6,14 kg CO2 eq used 27% % of kg CO2 eq saved 19498,89 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pleta-sneaker-man-red-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Black
+                        Pleta
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; BLACK PLETA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pleta trainers are made of 100% recycled polyamide. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Extremely comfortable and perfect to make your outfit stand out. • Primary fabric: 100% Recycled Polyamide • Secondary fabric: 100% Polyester • Lining: 100% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+598,14 liters of water used 27% % of liters saved 6,14 kg CO2 eq used 27% % of kg CO2 eq saved 19498,89 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+598,14 liters of water used 27% % of liters saved 6,14 kg CO2 eq used 27% % of kg CO2 eq saved 19498,89 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pleta-sneaker-man-total-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>White
+                        Pleta
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; WHITE PLETA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Pleta trainers are made of 100% recycled polyamide. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. Extremely comfortable and perfect to make your outfit stand out. • Primary fabric: 100% Recycled Polyamide • Secondary fabric: 100% Polyester • Lining: 100% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+598,14 liters of water used 27% % of liters saved 6,14 kg CO2 eq used 27% % of kg CO2 eq saved 19498,89 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+598,14 liters of water used 27% % of liters saved 6,14 kg CO2 eq used 27% % of kg CO2 eq saved 19498,89 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/pleta-sneaker-man-white-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Remo
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>450,00€</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; NAVY BLUE REMO COAT</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Remo coat is made of 95% recycled wool and 5% other recycled fibres. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Elegant, timeless and perfect for any occasion. • Regular cut • Front fastening with personalised buttons • Welt pocket on left chest • Pockets with a flap at the bottom • Sleeve buttons • Branded trims • Interior branding
+[SUSTAINABILITY REPORT]
+841,69 liters of water used 66% % of liters saved 32,78 kg CO2 eq used 76% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+841,69 liters of water used 66% % of liters saved 32,78 kg CO2 eq used 76% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/remo-jacket-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Pack
+                        X2
+                        Maroon/blue
+                        Roger
+                        Boxer</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>49,90€</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; PACK X2 MAROON/BLUE ROGER BOXER</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Roger striped boxers are made from 70% organic cotton and 30% recycled cotton. Recycled cotton saves water and CO2, gives new life to textile waste, and reduces the need for virgin cotton. It requires no pesticides or new land, helping to protect soil, water, and biodiversity. 2-pack: burgundy and navy blue Elastic waistband Branded detailing
+[SUSTAINABILITY REPORT]
+423,82 liters of water used 76% % of liters saved 3,11 kg CO2 eq used 49% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+423,82 liters of water used 76% % of liters saved 3,11 kg CO2 eq used 49% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/roger-boxer-man-pack-burgundy-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Pack
+                        X2
+                        Green/navy
+                        Blue
+                        Roger
+                        Boxer</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>49,90€</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; PACK X2 GREEN/NAVY BLUE ROGER BOXER</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Roger striped boxers are made of 70% organic cotton and 30% recycled cotton. Recycled cotton saves water and CO₂, gives new life to textile waste, and reduces the use of virgin cotton. It requires no pesticides or new land, helping to protect soil, water, and biodiversity. 2-pack: green and navy blue Elastic waistband Branded details
+[SUSTAINABILITY REPORT]
+423,82 liters of water used 76% % of liters saved 3,11 kg CO2 eq used 49% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+423,82 liters of water used 76% % of liters saved 3,11 kg CO2 eq used 49% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/roger-boxer-man-pack-green-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Pack
+                        X2
+                        White/blue
+                        Roger
+                        Boxer</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>49,90€</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; PACK X2 WHITE/BLUE ROGER BOXER</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+Roger boxers are made of 70% organic cotton and 30% recycled cotton. Recycled cotton saves water and CO₂, gives new life to textile waste, and reduces the use of virgin cotton. It requires no pesticides or new land, helping to protect soil, water, and biodiversity. 2-pack: white and blue Elastic waistband Branded details
+[SUSTAINABILITY REPORT]
+423,82 liters of water used 76% % of liters saved 3,11 kg CO2 eq used 49% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+423,82 liters of water used 76% % of liters saved 3,11 kg CO2 eq used 49% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/roger-boxer-man-pack-whiteblue-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Blue
+                        Sasa
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>149,90€</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; BLUE SASA SWEATER</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Sasa sweater is made of 100% recycled wool. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and perfect for the in-between seasons. • Regular cut • 7GG knit • Two-tone ribbing on the collar • Two-way front central zip fastening with customised puller • Double zip • Interior branding
+[SUSTAINABILITY REPORT]
+198,89 liters of water used 80% % of liters saved 6,8 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+198,89 liters of water used 80% % of liters saved 6,8 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/sasa-knit-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Beige
+                        Sasa
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>149,90€</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; BEIGE SASA SWEATER</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Sasa sweater is made of 100% recycled wool. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and perfect for the in-between seasons. • Regular cut • 7GG knit • Two-tone ribbing on the collar • Two-way front central zip fastening with customised puller • Double zip • Interior branding
+[SUSTAINABILITY REPORT]
+198,89 liters of water used 80% % of liters saved 6,8 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+198,89 liters of water used 80% % of liters saved 6,8 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/sasa-knit-man-toast-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Black
+                        Simi
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; BLACK SIMI SWEATER</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Simi sweater is made of 55% organic cotton and 45% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Elegant and ideal for everyday use. • Regular cut • 14GG smooth knit • Kangaroo pockets on the front • High collar • Ribbed collar, cuffs and hem • Central front fastening with personalised zip • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+708,37 liters of water used 78% % of liters saved 5,56 kg CO2 eq used 48% % of kg CO2 eq saved 24720,31 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+708,37 liters of water used 78% % of liters saved 5,56 kg CO2 eq used 48% % of kg CO2 eq saved 24720,31 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/simi-knit-man-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Simi
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; DARK GREEN SIMI SWEATER</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Simi sweater is made of 55% organic cotton and 45% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Elegant and ideal for everyday use. • Regular cut • 14GG smooth knit • Kangaroo pockets on the front • High collar • Ribbed collar, cuffs and hem • Central front fastening with personalised zip • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+708,37 liters of water used 78% % of liters saved 5,56 kg CO2 eq used 48% % of kg CO2 eq saved 24720,31 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+708,37 liters of water used 78% % of liters saved 5,56 kg CO2 eq used 48% % of kg CO2 eq saved 24720,31 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/simi-knit-man-dark-pine-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Strenk
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>89,90€</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; DARK GREY STRENK TRAINERS</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Strenk boots are made of 70% recycled polyamide and 30% organic cotton. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. • Primary fabric: 70% Recycled Polyamide/ 30% Organic Cotton • Lining: 70% Recycled Polyamide/ 30% Organic Cotton • Insole: 100% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 70% Recycled Polyester/30% Elastane • Vegan
+[SUSTAINABILITY REPORT]
+820,27 liters of water used 37% % of liters saved 11,07 kg CO2 eq used 34% % of kg CO2 eq saved 22781,95 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+820,27 liters of water used 37% % of liters saved 11,07 kg CO2 eq used 34% % of kg CO2 eq saved 22781,95 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/strenk-boot-man-asphalt-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>White
+                        Strenk
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>89,90€</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; WHITE STRENK TRAINERS</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Strenk boots are made of 70% recycled polyamide and 30% organic cotton. By using recycled polyamide as opposed to conventional polyamide, we drastically cut down on greenhouse gas emissions, reduce the use of non-renewable fossil resources, as well as reincorporate waste into the value chain, fostering a circular economy in the textile industry. • Primary fabric: 70% Recycled Polyamide/ 30% Organic Cotton • Lining: 70% Recycled Polyamide/ 30% Organic Cotton • Insole: 100% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 70% Recycled Polyester/30% Elastane • Vegan
+[SUSTAINABILITY REPORT]
+820,27 liters of water used 37% % of liters saved 11,07 kg CO2 eq used 34% % of kg CO2 eq saved 22781,95 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+820,27 liters of water used 37% % of liters saved 11,07 kg CO2 eq used 34% % of kg CO2 eq saved 22781,95 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/strenk-boot-man-off-white-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Green
+                        Stuart
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>249,90€</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; GREEN STUART JACKET</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The jacket is made of 100% recycled wool. Its lining and padding are made of 100% recycled polyester. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and perfect for any occasion. • Regular cut • Personalised front central zip • Padded body • Ribbed collar, cuffs and hem • Front pockets with zip • Knitted sleeves • Brand details • Interior branding
+[SUSTAINABILITY REPORT]
+378,92 liters of water used 63% % of liters saved 10,19 kg CO2 eq used 73% % of kg CO2 eq saved 22446,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+378,92 liters of water used 63% % of liters saved 10,19 kg CO2 eq used 73% % of kg CO2 eq saved 22446,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/stuart-hybrid-jacket-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Stuart
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>249,90€</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; NAVY BLUE STUART JACKET</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Stuart jacket is made of 100% recycled wool. Its lining and padding are made of 100% recycled polyester. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and perfect for any occasion. • Regular cut • Personalised front central zip • Padded body • Ribbed collar, cuffs and hem • Front pockets with zip • Knitted sleeves • Brand details • Interior branding
+[SUSTAINABILITY REPORT]
+378,92 liters of water used 63% % of liters saved 10,19 kg CO2 eq used 73% % of kg CO2 eq saved 22446,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+378,92 liters of water used 63% % of liters saved 10,19 kg CO2 eq used 73% % of kg CO2 eq saved 22446,71 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/stuart-hybrid-jacket-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Green
+                        Stuart
+                        Vest</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>199,90€</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; GREEN STUART VEST</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Stuart vest is made of 100% recycled wool. Its lining and padding are made of 100% recycled polyester. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and perfect for any occasion. • Regular cut • High collar • Ribbed collar and cuffs • Central front fastening with personalised zip • Front zipped padded pockets • Brand details • Interior branding
+[SUSTAINABILITY REPORT]
+263,57 liters of water used 66% % of liters saved 6,56 kg CO2 eq used 78% % of kg CO2 eq saved 22485,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+263,57 liters of water used 66% % of liters saved 6,56 kg CO2 eq used 78% % of kg CO2 eq saved 22485,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/stuart-hybrid-vest-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Blue
+                        Stuart
+                        Vest</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>199,90€</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BLUE STUART VEST</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Stuart vest is made of 100% recycled wool. Its lining and padding are made of 100% recycled polyester. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and perfect for any occasion. • Regular cut • High collar • Ribbed collar and cuffs • Central front fastening with personalised zip • Front zipped padded pockets • Brand details • Interior branding
+[SUSTAINABILITY REPORT]
+263,57 liters of water used 66% % of liters saved 6,56 kg CO2 eq used 78% % of kg CO2 eq saved 22485,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+263,57 liters of water used 66% % of liters saved 6,56 kg CO2 eq used 78% % of kg CO2 eq saved 22485,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/stuart-hybrid-vest-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Beige
+                        Stuart
+                        Vest</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>199,90€</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BEIGE STUART VEST</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Stuart vest is made of 100% recycled wool. Its lining and padding are made of 100% recycled polyester. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and perfect for any occasion. • Regular cut • High collar • Ribbed collar and cuffs • Central front fastening with personalised zip • Front zipped padded pockets • Brand details • Interior branding
+[SUSTAINABILITY REPORT]
+263,57 liters of water used 66% % of liters saved 6,56 kg CO2 eq used 78% % of kg CO2 eq saved 22485,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+263,57 liters of water used 66% % of liters saved 6,56 kg CO2 eq used 78% % of kg CO2 eq saved 22485,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/stuart-hybrid-vest-man-toast-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Green
+                        Surat
+                        Hoodie</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>149,90€</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable hoodies for men &gt; GREEN SURAT HOODIE</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Surat hoodie is made of 75% recycled Polyester, 16% Viscose and 9% Elastane. It has a 100% organic cotton lining. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Elegant and ideal for any time of year. • Regular cut • Adjustable hood with drawstring • Flap pockets on the lower front • Central front placket with a half-length fastening and press studs • Roll dyed • Branded trims • Interior branding • Made using 100% renewable energy • Vegan
+[SUSTAINABILITY REPORT]
+452,6 liters of water used 50% % of liters saved 8,37 kg CO2 eq used 39% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+452,6 liters of water used 50% % of liters saved 8,37 kg CO2 eq used 39% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/surat-hybrid-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Blue
+                        Surat
+                        Hoodie</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>149,90€</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable hoodies for men &gt; BLUE SURAT HOODIE</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Surat hoodie is made of 75% recycled Polyester, 16% Viscose and 9% Elastane. It has a 100% organic cotton lining. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Elegant and ideal for any time of year. • Regular cut • Adjustable hood with drawstring • Flap pockets on the lower front • Central front placket with a half-length fastening and press studs • Roll dyed • Branded trims • Interior branding • Made using 100% renewable energy • Vegan
+[SUSTAINABILITY REPORT]
+452,6 liters of water used 50% % of liters saved 8,37 kg CO2 eq used 39% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+452,6 liters of water used 50% % of liters saved 8,37 kg CO2 eq used 39% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/surat-hybrid-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Sweatshirt
+                        Surat
+                        Navy
+                        Blue</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>149,90€</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable hoodies for men &gt; SWEATSHIRT SURAT NAVY BLUE</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Surat sweatshirt is made from 75% recycled polyester, 
+ a durable fabric made from recycled plastic bottles. A sweatshirt that will keep you comfortable while doing your bit for the environment. Primary fabric: 75% recycled polyester/16% Lenzing/9% Spandex Secondary fabric: 100% recycled polyester Regular fit Adjustable drawstring hood Front pockets with flap Front closure with snap-button closure ECOALF logo on the sleeve Vegan
+[SUSTAINABILITY REPORT]
+118,23 liters of water used 21% % of liters saved 10,25 kg CO2 eq used 39% % of kg CO2 eq saved 63 people behind with safe work &amp; better livelihoods + 42 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+118,23 liters of water used 21% % of liters saved 10,25 kg CO2 eq used 39% % of kg CO2 eq saved 63 people behind with safe work &amp; better livelihoods + 42 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/suratalf-sweatshirt-man-deep-navy-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Light
+                        Grey
+                        Long-sleeved
+                        Sustano
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>69,90€</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; LIGHT GREY LONG-SLEEVED SUSTANO T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Sustano T-Shirt is made of 50% recycled cotton and 50% organic cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Simple, elegant and ideal for everyday use. • Regular cut • Round neck • Ribbed collar • Print on the back • Garment dyed • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+855,18 liters of water used 75% % of liters saved 6,77 kg CO2 eq used 43% % of kg CO2 eq saved 13794 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+855,18 liters of water used 75% % of liters saved 6,77 kg CO2 eq used 43% % of kg CO2 eq saved 13794 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/sustano-long-sleeve-t-shirt-man-ice-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Sustano
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>69,90€</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s t-shirts &gt; DARK GREY SUSTANO T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Sustano long-sleeved T-shirt has "Sustainability" printed on the back and is made from 50% recycled cotton and 50% organic cotton, more sustainable and environmentally-friendly alternatives to conventional cotton. A T-shirt that plays its part in fostering the Circular Economy. Primary fabric: 50% recycled cotton/50% organic cotton Regular fit Round neck Ribbed fabric on the collar Text: "Sustainability" Vegan
+[SUSTAINABILITY REPORT]
+245,56 liters of water used 89% % of liters saved 4,31 kg CO2 eq used 62% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+245,56 liters of water used 89% % of liters saved 4,31 kg CO2 eq used 62% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 14.700 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/sustanoalf-long-sleeve-t-shirt-man-asphalt-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Tali
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>299,90€</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; DARK GREEN TALI JACKET</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tali Jacket is made of a blend of 54% recycled Polyester and 46% organic Cotton, with 100% recycled Polyester lining and 100% recycled THERMOLITE® Polyester (Textile-to-Textile) filling. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. Timeless, elegant and ideal for everyday use. • Regular fit • High collar • Lower front pockets • Central front placket fastened with personalised 3/4 buttons • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1049,34 liters of water used 59% % of liters saved 14,55 kg CO2 eq used 35% % of kg CO2 eq saved 22666 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1049,34 liters of water used 59% % of liters saved 14,55 kg CO2 eq used 35% % of kg CO2 eq saved 22666 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tali-jacket-man-beetle-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Green
+                        Tarka
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>249,90€</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; GREEN TARKA JACKET</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tarka jacket is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). 100% recycled polyester lining. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. Elegant and ideal for cold and wet days. • Water-repellent • 10K Waterproof • 5K Breathable • PFC-free • Regular cut • Central front fastening with personalised zip • Lower front pocket with zip • Adjustable hood with elastic drawstring and personalised stoppers • Pocket with invisible zip • Elasticated inner cuffs • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+657,6 liters of water used 31% % of liters saved 12,07 kg CO2 eq used 31% % of kg CO2 eq saved 23145,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+657,6 liters of water used 31% % of liters saved 12,07 kg CO2 eq used 31% % of kg CO2 eq saved 23145,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tarka-jacket-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Black
+                        Tarka
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>249,90€</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BLACK TARKA JACKET</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tarka jacket is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). 100% recycled polyester lining. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. Elegant and ideal for cold and wet days. • Water-repellent • 10K Waterproof • 5K Breathable • PFC-free • Regular cut • Central front fastening with personalised zip • Lower front pocket with zip • Adjustable hood with elastic drawstring and personalised stoppers • Pocket with invisible zip • Elasticated inner cuffs • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+657,6 liters of water used 31% % of liters saved 12,07 kg CO2 eq used 31% % of kg CO2 eq saved 23145,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+657,6 liters of water used 31% % of liters saved 12,07 kg CO2 eq used 31% % of kg CO2 eq saved 23145,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tarka-jacket-man-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Red
+                        Tarka
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>249,90€</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; RED TARKA JACKET</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tarka Jacket is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). 100% recycled polyester lining. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. Elegant and ideal for cold and wet days. • Water-repellent • 10K Waterproof • 5K Breathable • PFC-free • Regular cut • Central front fastening with personalised zip • Lower front pocket with zip • Adjustable hood with elastic drawstring and personalised stoppers • Pocket with invisible zip • Elasticated inner cuffs • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+657,6 liters of water used 31% % of liters saved 12,07 kg CO2 eq used 31% % of kg CO2 eq saved 23145,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+657,6 liters of water used 31% % of liters saved 12,07 kg CO2 eq used 31% % of kg CO2 eq saved 23145,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tarka-jacket-man-dark-red-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Blue
+                        Tarka
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>249,90€</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BLUE TARKA JACKET</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tarka Jacket is made of 58% recycled Polyester (Ocean Yarn) and 42% recycled Polyester (Textile-to-Textile). 100% recycled polyester lining. Our recycled polyester ocean yarn is produced from bottles and other waste collected from the ocean, thanks to the Ecoalf Foundation, that strives to rid the oceans of marine debris. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. Elegant and ideal for cold and wet days. • Water-repellent • 10K Waterproof • 5K Breathable • PFC-free • Regular cut • Central front fastening with personalised zip • Lower front pocket with zip • Adjustable hood with elastic drawstring and personalised stoppers • Pocket with invisible zip • Elasticated inner cuffs • Branded trims • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+657,6 liters of water used 31% % of liters saved 12,07 kg CO2 eq used 31% % of kg CO2 eq saved 23145,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+657,6 liters of water used 31% % of liters saved 12,07 kg CO2 eq used 31% % of kg CO2 eq saved 23145,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tarka-jacket-man-ink-blue-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Taska
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>399,90€</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; DARK GREEN TASKA COAT</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Taska coat is made of a blend of 54% recycled Polyester and 46% organic Cotton, with 100% recycled Polyester lining and 100% recycled THERMOLITE® Polyester (Textile-to-Textile) filling. Recycled polyester can come from post-consumer PET bottles or from textile waste (production leftovers or used garments). We close the circular economy loop and prevent this waste from ending up in landfills, incinerators or being downcycled, giving a new lease of life to textile waste. Timeless, elegant and ideal for everyday use. • Regular fit • 3/4 length • Central front placket fastened with personalised buttons • Front flap pockets • Front chest pockets • Adjustable hood with drawstring • Cuff placket closed with personalised button • Shirttail hem • Branded trims • Garment dyed • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1292 liters of water used 60% % of liters saved 18,21 kg CO2 eq used 34% % of kg CO2 eq saved 22652,47 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1292 liters of water used 60% % of liters saved 18,21 kg CO2 eq used 34% % of kg CO2 eq saved 22652,47 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/taska-jacket-man-beetle-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Blue
+                        Tavira
+                        Hoodie</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>119,90€</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable hoodies for men &gt; BLUE TAVIRA HOODIE</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tavira hoodie is made of 100% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. For every product sold from our Because There Is No Planet B® collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,700 tonnes of waste from the ocean. Simple and ideal for everyday use. • Regular cut • Ribbed cuffs • Kangaroo pockets • Print on the front • Roll dyed • Adjustable hood with drawstring • Interior branding • Made using 100% renewable energy • Vegan
+[SUSTAINABILITY REPORT]
+683,02 liters of water used 90% % of liters saved 9,92 kg CO2 eq used 51% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+683,02 liters of water used 90% % of liters saved 9,92 kg CO2 eq used 51% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tavira-sweatshirt-man-grey-blue-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Light
+                        Grey
+                        Tavira
+                        Hoodie</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>119,90€</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable hoodies for men &gt; LIGHT GREY TAVIRA HOODIE</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tavira hoodie is made of 100% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. For every product sold from our Because There Is No Planet B® collection, we’ll donate 10% to the ECOALF Foundation to support the Upcycling the Oceans project, which has already brought together more than 4,200 fishermen and recovered more than 1,700 tonnes of waste from the ocean. Simple and ideal for everyday use. • Regular cut • Ribbed cuffs • Kangaroo pockets • Print on the front • Roll dyed • Adjustable hood with drawstring • Interior branding • Made using 100% renewable energy • Vegan
+[SUSTAINABILITY REPORT]
+683,02 liters of water used 90% % of liters saved 9,92 kg CO2 eq used 51% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+683,02 liters of water used 90% % of liters saved 9,92 kg CO2 eq used 51% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tavira-sweatshirt-man-ice-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Blue
+                        Tilo
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>139,90€</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; BLUE TILO SWEATER</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tilo sweater is made of 100% recycled wool. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Elegant and ideal for everyday use. • Regular cut • Cable knit • Ribbed collar, cuffs and hem • Raglan sleeve • Interior branding
+[SUSTAINABILITY REPORT]
+179,5 liters of water used 81% % of liters saved 6,12 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+179,5 liters of water used 81% % of liters saved 6,12 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tilo-knit-man-blue-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Tilo
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>139,90€</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; DARK GREEN TILO SWEATER</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tilo sweater is made of 100% recycled wool. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Elegant and ideal for everyday use. • Regular cut • Cable knit • Ribbed collar, cuffs and hem • Raglan sleeve • Interior branding
+[SUSTAINABILITY REPORT]
+179,5 liters of water used 81% % of liters saved 6,12 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+179,5 liters of water used 81% % of liters saved 6,12 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tilo-knit-man-dark-pine-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Light
+                        Grey
+                        Tilo
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>139,90€</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; LIGHT GREY TILO SWEATER</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tilo sweater is made of 100% recycled wool. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Elegant and ideal for everyday use. • Regular cut • Cable knit • Ribbed collar, cuffs and hem • Raglan sleeve • Interior branding
+[SUSTAINABILITY REPORT]
+179,5 liters of water used 81% % of liters saved 6,12 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+179,5 liters of water used 81% % of liters saved 6,12 kg CO2 eq used 81% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tilo-knit-man-light-grey-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Grey
+                        Tilo
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>139,90€</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; GREY TILO SWEATER</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The knitted Tilo sweater is made from 100% recycled wool. ECOALF is committed to animal welfare. We are certified with PETA-Approved Vegan (People for the Ethical Treatment of Animals), with recycled wool being the only material of animal origin used in our collections. Primary fabric: 100% recycled wool Regular fit Knitted round neck Ribbed fabric on the cuffs and neck Raglan sleeves
+[SUSTAINABILITY REPORT]
+103,77 liters of water used 48% % of liters saved 8,44 kg CO2 eq used 77% % of kg CO2 eq saved 32 people behind with safe work &amp; better livelihoods + 21 processes from design to sale in a product ethically traded 20.725 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+103,77 liters of water used 48% % of liters saved 8,44 kg CO2 eq used 77% % of kg CO2 eq saved 32 people behind with safe work &amp; better livelihoods + 21 processes from design to sale in a product ethically traded 20.725 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tiloalf-knit-man-medium-grey-melange-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Green
+                        Tilo
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>139,90€</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; GREEN TILO SWEATER</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The knitted Tilo sweater is made from 100% recycled wool. ECOALF is committed to animal welfare. We are certified with PETA-Approved Vegan (People for the Ethical Treatment of Animals), with recycled wool being the only material of animal origin used in our collections. Primary fabric: 100% recycled wool Regular fit Knitted round neck Ribbed fabric on the cuffs and neck Raglan sleeves
+[SUSTAINABILITY REPORT]
+103,77 liters of water used 48% % of liters saved 8,44 kg CO2 eq used 77% % of kg CO2 eq saved 32 people behind with safe work &amp; better livelihoods + 21 processes from design to sale in a product ethically traded 20.725 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+103,77 liters of water used 48% % of liters saved 8,44 kg CO2 eq used 77% % of kg CO2 eq saved 32 people behind with safe work &amp; better livelihoods + 21 processes from design to sale in a product ethically traded 20.725 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tiloalf-knit-man-pine-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Tiron
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>149,90€</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; DARK GREY TIRON TROUSERS</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tiron trousers are made of 80% organic cotton and 20% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Simple and ideal for everyday use. • Mid-rise • Regular cut • Belt loops at the waist • Slant pockets • Brand details • Cargo pockets on the front • Ribbed pockets at the back • Fly with central button on the waistband • Front pleats • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1340,54 liters of water used 70% % of liters saved 10,66 kg CO2 eq used 38% % of kg CO2 eq saved 27704,33 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1340,54 liters of water used 70% % of liters saved 10,66 kg CO2 eq used 38% % of kg CO2 eq saved 27704,33 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tiron-pants-man-asphalt-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Green
+                        Tiron
+                        Trousers</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>149,90€</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Home &gt; Durable men’s trousers &gt; GREEN TIRON TROUSERS</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Tiron trousers are made of 80% organic cotton and 20% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Simple and ideal for everyday use. • Mid-rise • Regular cut • Belt loops at the waist • Slant pockets • Brand details • Cargo pockets on the front • Ribbed pockets at the back • Fly with central button on the waistband • Front pleats • Interior branding • Vegan
+[SUSTAINABILITY REPORT]
+1340,54 liters of water used 70% % of liters saved 10,66 kg CO2 eq used 38% % of kg CO2 eq saved 27704,33 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1340,54 liters of water used 70% % of liters saved 10,66 kg CO2 eq used 38% % of kg CO2 eq saved 27704,33 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/tiron-pants-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Black
+                        Travel
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>129,90€</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S SUITCASES AND TRAVEL BAGS &gt; BLACK TRAVEL BAG</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Travel bag is made of 63% recycled Polyester, 37% Polyester, 35% ECOVERO™. Ideal for getaways or everyday use. • Lining: 100% Recycled Polyamide • Water-repellent
+[SUSTAINABILITY REPORT]
+735,64 liters of water used 24% % of liters saved 11,21 kg CO2 eq used 21% % of kg CO2 eq saved 23687,6 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+735,64 liters of water used 24% % of liters saved 11,21 kg CO2 eq used 21% % of kg CO2 eq saved 23687,6 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/travel-bag-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Khaki
+                        Travel
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S SUITCASES AND TRAVEL BAGS &gt; KHAKI TRAVEL BAG</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Travel bag is made of 63% recycled Polyester, 37% Polyester, 35% ECOVERO™. Ideal for getaways or everyday use. • Lining: 100% Recycled Polyamide • Water-repellent
+[SUSTAINABILITY REPORT]
+694,67 liters of water used 29% % of liters saved 10,61 kg CO2 eq used 25% % of kg CO2 eq saved 23687,6 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+694,67 liters of water used 29% % of liters saved 10,61 kg CO2 eq used 25% % of kg CO2 eq saved 23687,6 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/travel-bag-deep-khaki-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Travel
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S SUITCASES AND TRAVEL BAGS &gt; NAVY BLUE TRAVEL BAG</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Travel bag is made of 63% recycled Polyester, 37% Polyester, 35% ECOVERO™. Ideal for getaways or everyday use. • Lining: 100% Recycled Polyamide • Water-repellent
+[SUSTAINABILITY REPORT]
+694,67 liters of water used 29% % of liters saved 10,61 kg CO2 eq used 25% % of kg CO2 eq saved 23687,6 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+694,67 liters of water used 29% % of liters saved 10,61 kg CO2 eq used 25% % of kg CO2 eq saved 23687,6 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/travel-bag-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Uclaalf
+                        Khaki
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>79,00€</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; UCLAALF KHAKI TRAINERS</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Uclaalf trainers are made from 100% recycled nylon, the synthetic fibre that releases the least microplastics. The sole is made from recycled rubber. Vegan and sustainable trainers made entirely from recycled fibres. Primary fabric: 100% recycled nylon 20% recycled polyurethane No metal components ECOALF logo on the lapel Vegan
+[SUSTAINABILITY REPORT]
+66,29 liters of water used 29% % of liters saved 6,8 kg CO2 eq used 42% % of kg CO2 eq saved 135 people behind with safe work &amp; better livelihoods + 90 processes from design to sale in a product ethically traded 20.509 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+66,29 liters of water used 29% % of liters saved 6,8 kg CO2 eq used 42% % of kg CO2 eq saved 135 people behind with safe work &amp; better livelihoods + 90 processes from design to sale in a product ethically traded 20.509 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ucla-sneakers-man-khaki-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Uclaalf
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>79,00€</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Uclaalf trainers are made from 100% recycled nylon, the synthetic fibre that releases the least microplastics. The sole is made from recycled rubber. Vegan and sustainable trainers made entirely from recycled fibres. Primary fabric: 100% recycled nylon 20% recycled polyurethane No metal components ECOALF logo on the lapel Vegan
+[SUSTAINABILITY REPORT]
+66,29 liters of water used 29% % of liters saved 6,8 kg CO2 eq used 42% % of kg CO2 eq saved 135 people behind with safe work &amp; better livelihoods + 90 processes from design to sale in a product ethically traded 20.509 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+66,29 liters of water used 29% % of liters saved 6,8 kg CO2 eq used 42% % of kg CO2 eq saved 135 people behind with safe work &amp; better livelihoods + 90 processes from design to sale in a product ethically traded 20.509 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ucla-sneakers-man-navy-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Blue
+                        Uclaalf
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; BLUE UCLAALF TRAINERS</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ucla trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Their elevated comfort and simplicity make them perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 50% recycled PU / 50% PU • Midsole: 90% recycled EVA/10% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/uclaalf-sneakers-man-blue-klein-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Uclaalf
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Uclaalf trainers, made of 100% recycled polyamide, strike the perfect balance between a contemporary and sustainable design. Using recycled polyamide leads to significant CO2 and water savings while giving waste a new lease of life. The 80% recycled polyurethane insole and 30% recycled rubber outsole ensure a comfortable and versatile style, whatever the occasion. Primary fabric: 100% Recycled polyamide Suede: 70% Polyester/10% PU Glue/20% Viscose Vegan suede: 70% Polyester/20% Viscose/10% PU Glue Lining: 100% Recycled polyester Insole: 80% Recycled polyurethane/20% Polyurethane Sole: 70% Rubber/30% Recycled rubber Laces: 97% Recycled polyester/3% Cellulose acetate Midsole: 70% EVA/30% Recycled EVA Assembly: sealed Vegan
+[SUSTAINABILITY REPORT]
+654,06 liters of water used 21% % of liters saved 7,75 kg CO2 eq used 24% % of kg CO2 eq saved 29869,55 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+654,06 liters of water used 21% % of liters saved 7,75 kg CO2 eq used 24% % of kg CO2 eq saved 29869,55 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/uclaalf-sneakers-man-dark-grey-ss25</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Blue
+                        Uclaalf
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; BLUE UCLAALF TRAINERS</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ucla trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Their elevated comfort and simplicity make them perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 50% recycled PU / 50% PU • Midsole: 90% recycled EVA/10% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/uclaalf-sneakers-man-dusty-blue-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Khaki
+                        Uclaalf
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; KHAKI UCLAALF TRAINERS</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ucla trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Their elevated comfort and simplicity make them perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 50% recycled PU / 50% PU • Midsole: 90% recycled EVA/10% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/uclaalf-sneakers-man-khaki-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Light
+                        Grey
+                        Uclaalf
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; LIGHT GREY UCLAALF TRAINERS</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ucla trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Their elevated comfort and simplicity make them perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 50% recycled PU / 50% PU • Midsole: 90% recycled EVA/10% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/uclaalf-sneakers-man-light-grey-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Uclaalf
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; NAVY BLUE UCLAALF TRAINERS</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Uclaalf trainers, made of 100% recycled polyamide, strike the perfect balance between a contemporary and sustainable design. Using recycled polyamide leads to significant CO2 and water savings while giving waste a new lease of life. The 80% recycled polyurethane insole and 30% recycled rubber outsole ensure a comfortable and versatile style, whatever the occasion. Primary fabric: 100% Recycled polyamide Suede: 70% Polyester/10% PU Glue/20% Viscose Vegan suede: 70% Polyester/20% Viscose/10% PU Glue Lining: 100% Recycled polyester Insole: 80% Recycled polyurethane/20% Polyurethane Sole: 70% Rubber/30% Recycled rubber Laces: 97% Recycled polyester/3% Cellulose acetate Midsole: 70% EVA/30% Recycled EVA Assembly: sealed Vegan
+[SUSTAINABILITY REPORT]
+654,06 liters of water used 21% % of liters saved 7,75 kg CO2 eq used 24% % of kg CO2 eq saved 29869,55 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+654,06 liters of water used 21% % of liters saved 7,75 kg CO2 eq used 24% % of kg CO2 eq saved 29869,55 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/uclaalf-sneakers-man-navy-ss25</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Red
+                        And
+                        Grey
+                        Uclaalf
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; RED AND GREY UCLAALF TRAINERS</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ucla trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Their elevated comfort and simplicity make them perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 50% recycled PU / 50% PU • Midsole: 90% recycled EVA/10% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/uclaalf-sneakers-man-red-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Brown
+                        Uclaalf
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; BROWN UCLAALF TRAINERS</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ucla trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Their elevated comfort and simplicity make them perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 65% PU/35% Recycled Polyester • Lining: 100% Recycled Polyester • Insole: 50% recycled PU / 50% PU • Midsole: 90% recycled EVA/10% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+537,24 liters of water used 31% % of liters saved 6,12 kg CO2 eq used 29% % of kg CO2 eq saved 19308,93 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/uclaalf-sneakers-man-topo-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Blue
+                        Unter
+                        Jacket</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>380,00€</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; BLUE UNTER JACKET</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Unter Jacket is made of 95% recycled wool and 5% other recycled fibres. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Elegant and ideal for everyday use. • Regular cut • Personalised zip on the front • Ribbed collar, cuffs and hem • High collar • Lower front pockets • Branded trims • Interior branding
+[SUSTAINABILITY REPORT]
+841,69 liters of water used 66% % of liters saved 32,78 kg CO2 eq used 76% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+841,69 liters of water used 66% % of liters saved 32,78 kg CO2 eq used 76% % of kg CO2 eq saved 20725,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/unter-jacket-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Vent
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; DARK GREY VENT T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Vent T-shirt is made of 100% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Simple, elegant and perfect for any occasion. • Regular cut • Round neck • Ribbed collar • Interior branding • Made using 100% renewable energy • Vegan
+[SUSTAINABILITY REPORT]
+218,99 liters of water used 90% % of liters saved 3,14 kg CO2 eq used 59% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+218,99 liters of water used 90% % of liters saved 3,14 kg CO2 eq used 59% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/vent-t-shirt-man-asphalt-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Green
+                        Vent
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; GREEN VENT T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Vent T-shirt is made of 100% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Simple, elegant and perfect for any occasion. • Regular cut • Round neck • Ribbed collar • Interior branding • Made using 100% renewable energy • Vegan
+[SUSTAINABILITY REPORT]
+218,99 liters of water used 90% % of liters saved 3,14 kg CO2 eq used 59% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+218,99 liters of water used 90% % of liters saved 3,14 kg CO2 eq used 59% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/vent-t-shirt-man-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Light
+                        Grey
+                        Vent
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; LIGHT GREY VENT T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Vent T-shirt is made of 100% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Simple, elegant and perfect for any occasion. • Regular cut • Round neck • Ribbed collar • Interior branding • Made using 100% renewable energy • Vegan
+[SUSTAINABILITY REPORT]
+218,99 liters of water used 90% % of liters saved 3,14 kg CO2 eq used 59% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+218,99 liters of water used 90% % of liters saved 3,14 kg CO2 eq used 59% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/vent-t-shirt-man-ice-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Blue
+                        Vent
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; BLUE VENT T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Vent T-shirt is made of 100% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Simple, elegant and perfect for any occasion. • Regular cut • Round neck • Ribbed collar • Interior branding • Made using 100% renewable energy • Vegan
+[SUSTAINABILITY REPORT]
+218,99 liters of water used 90% % of liters saved 3,14 kg CO2 eq used 59% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+218,99 liters of water used 90% % of liters saved 3,14 kg CO2 eq used 59% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/vent-t-shirt-man-steel-blue-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>White
+                        Vent
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; WHITE VENT T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Vent T-shirt is made of 100% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Simple, elegant and perfect for any occasion. • Regular cut • Round neck • Ribbed collar • Interior branding • Made using 100% renewable energy • Vegan
+[SUSTAINABILITY REPORT]
+218,99 liters of water used 90% % of liters saved 3,14 kg CO2 eq used 59% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+218,99 liters of water used 90% % of liters saved 3,14 kg CO2 eq used 59% % of kg CO2 eq saved 12379,4 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/vent-t-shirt-man-white-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Vent
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s t-shirts &gt; DARK GREY VENT T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The short-sleeved Vent T-shirt is 
+ made from a blend of organic and recycled cotton. Organic cotton provides comfort and breathability, while recycled cotton conveys our commitment to sustainability by reducing our carbon footprint. Striking the perfect balance between style and ethics. Primary fabric: 50% recycled cotton/50% organic cotton Regular fit Round neck Ribbed fabric on the collar Short sleeves ECOALF logo on the sleeve Vegan
+[SUSTAINABILITY REPORT]
+245,64 liters of water used 88% % of liters saved 4,38 kg CO2 eq used 59% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 12.379 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+245,64 liters of water used 88% % of liters saved 4,38 kg CO2 eq used 59% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 12.379 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventalf-t-shirt-man-asphalt-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Black
+                        Vent
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s t-shirts &gt; BLACK VENT T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The short-sleeved Vent T-shirt is 
+ made from a blend of organic and recycled cotton. Organic cotton provides comfort and breathability, while recycled cotton conveys our commitment to sustainability by reducing our carbon footprint. Striking the perfect balance between style and ethics. Primary fabric: 50% recycled cotton/50% organic cotton Regular fit Round neck Ribbed fabric on the collar Short sleeves ECOALF logo on the sleeve Vegan
+[SUSTAINABILITY REPORT]
+245,64 liters of water used 88% % of liters saved 4,38 kg CO2 eq used 59% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 12.379 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+245,64 liters of water used 88% % of liters saved 4,38 kg CO2 eq used 59% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 12.379 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventalf-t-shirt-man-black-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Green
+                        Vent
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s t-shirts &gt; GREEN VENT T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The short-sleeved Vent T-shirt is 
+ made from a blend of organic and recycled cotton. Organic cotton provides comfort and breathability, while recycled cotton conveys our commitment to sustainability by reducing our carbon footprint. Striking the perfect balance between style and ethics. Primary fabric: 50% recycled cotton/50% organic cotton Regular fit Round neck Ribbed fabric on the collar Short sleeves ECOALF logo on the sleeve Vegan
+[SUSTAINABILITY REPORT]
+245,64 liters of water used 88% % of liters saved 4,38 kg CO2 eq used 59% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 12.379 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+245,64 liters of water used 88% % of liters saved 4,38 kg CO2 eq used 59% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 12.379 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventalf-t-shirt-man-dustygreen-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Blue
+                        Vent
+                        T-shirt</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s t-shirts &gt; BLUE VENT T-SHIRT</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The short-sleeved Vent T-shirt is 
+ made from a blend of organic and recycled cotton. Organic cotton provides comfort and breathability, while recycled cotton conveys our commitment to sustainability by reducing our carbon footprint. Striking the perfect balance between style and ethics. Primary fabric: 50% recycled cotton/50% organic cotton Regular fit Round neck Ribbed fabric on the collar Short sleeves ECOALF logo on the sleeve Vegan
+[SUSTAINABILITY REPORT]
+245,64 liters of water used 88% % of liters saved 4,38 kg CO2 eq used 59% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 12.379 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+245,64 liters of water used 88% % of liters saved 4,38 kg CO2 eq used 59% % of kg CO2 eq saved 24 people behind with safe work &amp; better livelihoods + 16 processes from design to sale in a product ethically traded 12.379 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventalf-t-shirt-man-steelblue-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; DARK GREEN VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventura-sneakers-man-beetle-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Grey/black
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; GREY/BLACK VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventura-sneakers-man-greyblack-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Khaki
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; KHAKI VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventura-sneakers-man-khaki-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Light
+                        Grey
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; LIGHT GREY VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventura-sneakers-man-light-grey-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue/brown
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; NAVY BLUE/BROWN VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventura-sneakers-man-navy-brown-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue/grey
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; NAVY BLUE/GREY VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventura-sneakers-man-navy-grey-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Red
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable men’s clothing &gt; RED VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventura-sneakers-man-red-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Black
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; BLACK VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventura-sneakers-man-total-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Grey
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; GREY VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers are made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Comfortable, elegant and perfect for everyday wear. • Primary fabric: 100% Recycled Polyester • Secondary fabric: 80% PU/20% Recycled Polyester • Lining: 70% PU/30% Recycled Polyester • Insole: 80% recycled PU / 20% PU • Midsole: 50% recycled EVA/50% EVA • Sole: 80% Rubber / 20% Recycled rubber • Laces: 97% Recycled Polyester/3% Cellulose Acetate • Vegan
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+615,7 liters of water used 25% % of liters saved 6,15 kg CO2 eq used 26% % of kg CO2 eq saved 19429,44 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/ventura-sneakers-man-vapour-grey-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Beige
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; BEIGE VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers, made of 100% recycled polyester, strike the perfect balance between a contemporary and sustainable design. The recycled polyester comes from recovered textiles that are turned into top-quality thread, thereby doing its bit for the Circular Economy. Their versatile style means they go well with all your everyday outfits. Primary fabric: 100% Recycled polyester Suede: 70% Polyurethane/30% Recycled polyester Lining: 70% Polyurethane/30% Post-consumer recycled polyester Insole: 80% Recycled polyurethane/20% Polyurethane Sole: 80% Rubber/20% Recycled rubber Laces: 100% Recycled polyester Midsole: 50% EVA/50% Recycled EVA Assembly: Strobel (reduces carbon footprint) Vegan
+[SUSTAINABILITY REPORT]
+692,15 liters of water used 16% % of liters saved 6,97 kg CO2 eq used 23% % of kg CO2 eq saved 21749,79 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+692,15 liters of water used 16% % of liters saved 6,97 kg CO2 eq used 23% % of kg CO2 eq saved 21749,79 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/venturaalf-sneakers-man-beige-ss25</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Grey
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; GREY VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers, made of 100% recycled polyester, strike the perfect balance between a contemporary and sustainable design. The recycled polyester comes from recovered textiles that are turned into top-quality thread, thereby doing its bit for the Circular Economy. Their versatile style means they go well with all your everyday outfits. Primary fabric: 100% Recycled polyester Suede: 70% Polyurethane/30% Recycled polyester Lining: 70% Polyurethane/30% Post-consumer recycled polyester Insole: 80% Recycled polyurethane/20% Polyurethane Sole: 80% Rubber/20% Recycled rubber Laces: 100% Recycled polyester Midsole: 50% EVA/50% Recycled EVA Assembly: Strobel (reduces carbon footprint) Vegan
+[SUSTAINABILITY REPORT]
+692,15 liters of water used 16% % of liters saved 6,97 kg CO2 eq used 23% % of kg CO2 eq saved 21749,79 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+692,15 liters of water used 16% % of liters saved 6,97 kg CO2 eq used 23% % of kg CO2 eq saved 21749,79 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/venturaalf-sneakers-man-light-grey-ss25</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; NAVY BLUE VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers, made of 100% recycled polyester, strike the perfect balance between a contemporary and sustainable design. The recycled polyester comes from recovered textiles that are turned into top-quality thread, thereby doing its bit for the Circular Economy. Their versatile style means they go well with all your everyday outfits. Primary fabric: 100% Recycled polyester Suede: 70% Polyurethane/30% Recycled polyester Lining: 70% Polyurethane/30% Post-consumer recycled polyester Insole: 80% Recycled polyurethane/20% Polyurethane Sole: 80% Rubber/20% Recycled rubber Laces: 100% Recycled polyester Midsole: 50% EVA/50% Recycled EVA Assembly: Strobel (reduces carbon footprint) Vegan
+[SUSTAINABILITY REPORT]
+692,15 liters of water used 16% % of liters saved 6,97 kg CO2 eq used 23% % of kg CO2 eq saved 21749,79 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+692,15 liters of water used 16% % of liters saved 6,97 kg CO2 eq used 23% % of kg CO2 eq saved 21749,79 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/venturaalf-sneakers-man-navy-ss25</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Black
+                        Ventura
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>99,90€</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; BLACK VENTURA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Ventura trainers, made of 100% recycled polyester, strike the perfect balance between a contemporary and sustainable design. The recycled polyester comes from recovered textiles that are turned into top-quality thread, thereby doing its bit for the Circular Economy. Their versatile style means they go well with all your everyday outfits. Primary fabric: 100% Recycled polyester Suede: 70% Polyurethane/30% Recycled polyester Lining: 70% Polyurethane/30% Post-consumer recycled polyester Insole: 80% Recycled polyurethane/20% Polyurethane Sole: 80% Rubber/20% Recycled rubber Laces: 100% Recycled polyester Midsole: 50% EVA/50% Recycled EVA Assembly: Strobel (reduces carbon footprint) Vegan
+[SUSTAINABILITY REPORT]
+692,15 liters of water used 16% % of liters saved 6,97 kg CO2 eq used 23% % of kg CO2 eq saved 21749,79 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+692,15 liters of water used 16% % of liters saved 6,97 kg CO2 eq used 23% % of kg CO2 eq saved 21749,79 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/venturaalf-sneakers-man-off-white-black-ss25</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Black
+                        Verona
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>109,90€</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; BLACK VERONA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Verona trainers are made of 59% recycled polyester/ 41% Sorona®. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. The fact that they are extremely comfortable make them perfect for any occasion. • Primary fabric: 59% recycled polyester/41% Sorona® • Lining: 100% Recycled Polyester • Insole: 100% Recycled Polyester • Midsole: 70% EVA/30% Recycled EVA • Sole: 100% TPU • Laces: 100% Recycled Polyester • Vegan
+[SUSTAINABILITY REPORT]
+851,09 liters of water used 23% % of liters saved 9,07 kg CO2 eq used 23% % of kg CO2 eq saved 22753,42 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+851,09 liters of water used 23% % of liters saved 9,07 kg CO2 eq used 23% % of kg CO2 eq saved 22753,42 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/verona-sneakers-man-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Verona
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>109,90€</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; NAVY BLUE VERONA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Verona trainers are made of 59% recycled polyester/ 41% Sorona®. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. The fact that they are extremely comfortable make them perfect for any occasion. • Primary fabric: 59% recycled polyester/41% Sorona® • Lining: 100% Recycled Polyester • Insole: 100% Recycled Polyester • Midsole: 70% EVA/30% Recycled EVA • Sole: 100% TPU • Laces: 100% Recycled Polyester • Vegan
+[SUSTAINABILITY REPORT]
+851,09 liters of water used 23% % of liters saved 9,07 kg CO2 eq used 23% % of kg CO2 eq saved 22753,42 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+851,09 liters of water used 23% % of liters saved 9,07 kg CO2 eq used 23% % of kg CO2 eq saved 22753,42 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/verona-sneakers-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Khaki
+                        Verona
+                        Trainers</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>109,90€</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S FOOTWEAR &gt; KHAKI VERONA TRAINERS</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Verona trainers are made of 59% recycled polyester/ 41% Sorona®. Sorona® is a biopolymer derived from the residues of maize production, thereby cutting down on the use of fossil fuels. What’s more, it can be recycled along with polyester. The fact that they are extremely comfortable make them perfect for any occasion. • Primary fabric: 59% recycled polyester/41% Sorona® • Lining: 100% Recycled Polyester • Insole: 100% Recycled Polyester • Midsole: 70% EVA/30% Recycled EVA • Sole: 100% TPU • Laces: 100% Recycled Polyester • Vegan
+[SUSTAINABILITY REPORT]
+851,09 liters of water used 23% % of liters saved 9,07 kg CO2 eq used 23% % of kg CO2 eq saved 22753,42 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+851,09 liters of water used 23% % of liters saved 9,07 kg CO2 eq used 23% % of kg CO2 eq saved 22753,42 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/verona-sneakers-man-khaki-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Vigo
+                        Hoodie</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>179,90€</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable hoodies for men &gt; DARK GREY VIGO HOODIE</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Vigo Hoodie is made of 50% organic cotton and 50% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Organic cotton cultivation avoids using pesticides and fertilisers that are potentially harmful to health and the environment, as well as staying away from genetically modified seeds, striving to curb biodiversity loss. Simple, elegant and perfect for any occasion. • Regular cut • Ribbed cuffs and hem • Personalised front fastening with zip • Inside pocket with zip • Adjustable good with drawstring and stoppers • Branded trims • Interior branding • Vegan • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+2165,13 liters of water used 77% % of liters saved 15,27 kg CO2 eq used 43% % of kg CO2 eq saved 12287,73 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+2165,13 liters of water used 77% % of liters saved 15,27 kg CO2 eq used 43% % of kg CO2 eq saved 12287,73 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/vigo-hybrid-man-asphalt-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Vigo
+                        Hoodie</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>179,90€</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable hoodies for men &gt; NAVY BLUE VIGO HOODIE</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Vigo hoodie is made of 50% organic cotton and 50% recycled cotton. Recycled cotton saves water and CO2 and gives a new lease of life to textile waste while cutting down on the use of virgin cotton. It does not require pesticides or new land, protecting soil, water and biodiversity. Organic cotton cultivation avoids using pesticides and fertilisers that are potentially harmful to health and the environment, as well as staying away from genetically modified seeds, striving to curb biodiversity loss. Simple, elegant and perfect for any occasion. • Regular cut • Ribbed cuffs and hem • Personalised front fastening with zip • Inside pocket with zip • Adjustable good with drawstring and stoppers • Branded trims • Interior branding • Vegan • Made using 100% renewable energy
+[SUSTAINABILITY REPORT]
+2165,13 liters of water used 77% % of liters saved 15,27 kg CO2 eq used 43% % of kg CO2 eq saved 12287,73 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+2165,13 liters of water used 77% % of liters saved 15,27 kg CO2 eq used 43% % of kg CO2 eq saved 12287,73 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/vigo-hybrid-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Vintage
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>299,90€</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; DARK GREY VINTAGE COAT</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Vintage coat is made of a blend of 90% recycled polyester and 10% polyester with a lining of 90% recycled polyester and 10% polyester and a 100% recycled polyester filling. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Simple, elegant and ideal for the coldest times of the year. • Regular fit • 3/4 length • Central front fastening with two-way personalised zip • Adjustable hood with personalised stoppers • Front pockets with personalised zips • Elastic inside cuffs • Branded trims • Interior branding • Water-repellent • PFC-free • Solution dyed • Vegan
+[SUSTAINABILITY REPORT]
+557,59 liters of water used 50% % of liters saved 9,15 kg CO2 eq used 53% % of kg CO2 eq saved 21873,99 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+557,59 liters of water used 50% % of liters saved 9,15 kg CO2 eq used 53% % of kg CO2 eq saved 21873,99 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/vintage-jacket-man-anthracite-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Vintage
+                        Coat</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>299,90€</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Home &gt; Men’s coats and jackets &gt; NAVY BLUE VINTAGE COAT</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Vintage coat is made of a blend of 85% recycled polyester and 15% polyester with a lining of 85% recycled polyester and 15% polyester, and a 100% recycled polyester filling. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Simple, elegant and ideal for the coldest times of the year. • Regular fit • 3/4 length • Central front fastening with two-way personalised zip • Adjustable hood with personalised stoppers • Front pockets with personalised zips • Elastic inside cuffs • Branded trims • Interior branding • Water-repellent • PFC-free • Solution dyed • Vegan
+[SUSTAINABILITY REPORT]
+566,35 liters of water used 49% % of liters saved 9,28 kg CO2 eq used 52% % of kg CO2 eq saved 21873,99 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+566,35 liters of water used 49% % of liters saved 9,28 kg CO2 eq used 52% % of kg CO2 eq saved 21873,99 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/vintage-jacket-man-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Black
+                        Wakai
+                        Backpack</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BLACK WAKAI BACKPACK</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Wakai backpack is made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Versatile and the perfect size for everyday use. • Lining: 100% Recycled Polyamide • Filling: 100% Polythene • Mesh: 100% Recycled Polyester • Straps: 100% Recycled Polyester • Number 8 recycled nylon zip with inverted spiral, always in black, for the main compartment • Front pocket with recycled black plastic zip • Adjustable side pockets, suitable for bottles • Padded base to protect laptop and content • Separate padded pocket with reverse spiral zip for laptop/tablet • Customised lacquered matte black handles with contrasting rope knot • Interior zip pocket for valuables and small belongings (keys, phone, wallet, etc.) • Neoprene padding with padded mesh on back panel and bottom of straps for extra comfort • Distinctive water-repellent fabric • 45 x 29 x 16 cm (Height x Length x Width) • 20 litres • Water-repellent • Vegan
+[SUSTAINABILITY REPORT]
+459,72 liters of water used 45% % of liters saved 10,44 kg CO2 eq used 35% % of kg CO2 eq saved 23128,66 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+459,72 liters of water used 45% % of liters saved 10,44 kg CO2 eq used 35% % of kg CO2 eq saved 23128,66 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wakai-backpack-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Green
+                        Wakai
+                        Backpack</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; GREEN WAKAI BACKPACK</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Wakai backpack is made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. Versatile and the perfect size for everyday use. • Lining: 100% Recycled Polyamide • Filling: 100% Polythene • Mesh: 100% Recycled Polyester • Straps: 100% Recycled Polyester • Number 8 recycled nylon zip with inverted spiral, always in black, for the main compartment • Front pocket with recycled black plastic zip • Adjustable side pockets, suitable for bottles • Padded base to protect laptop and content • Separate padded pocket with reverse spiral zip for laptop/tablet • Customised lacquered matte black handles with contrasting rope knot • Interior zip pocket for valuables and small belongings (keys, phone, wallet, etc.) • Neoprene padding with padded mesh on back panel and bottom of straps for extra comfort • Distinctive water-repellent fabric • 45 x 29 x 16 cm (Height x Length x Width) • 20 litres • Water-repellent • Vegan
+[SUSTAINABILITY REPORT]
+459,72 liters of water used 45% % of liters saved 10,44 kg CO2 eq used 35% % of kg CO2 eq saved 23128,66 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+459,72 liters of water used 45% % of liters saved 10,44 kg CO2 eq used 35% % of kg CO2 eq saved 23128,66 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wakai-backpack-forest-night-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Wakai
+                        Backpack</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Wakai rucksack is made from 100% recycled nylon, ECOALF’s alternative to virgin nylon. This allows us to give a second life to materials that would otherwise be considered waste. A backpack with different compartments that’s perfect to take with you anywhere. Primary fabric: 100% recycled nylon 100% recycled nylon Side pocket for bottles Padded bottom Inside pocket with zip Capacity: 20 litres Length: 29 cm / Width 16 cm / Height: 45 cm Water-repellent PFC-free Vegan
+[SUSTAINABILITY REPORT]
+128,93 liters of water used 13% % of liters saved 11,16 kg CO2 eq used 30% % of kg CO2 eq saved 78 people behind with safe work &amp; better livelihoods + 52 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+128,93 liters of water used 13% % of liters saved 11,16 kg CO2 eq used 30% % of kg CO2 eq saved 78 people behind with safe work &amp; better livelihoods + 52 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wakaialf-backpack-forest-night-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Black
+                        Wakai
+                        Toiletry
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>29,90€</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The small Wakai toiletry bag is made from 100% recycled nylon, ECOALF’s alternative to virgin nylon. This allows us to give a second life to materials that would otherwise be considered waste. A water-repellent accessory with several interior compartments. Primary fabric: 100% recycled nylon 100% recycled nylon Main compartment with two-way zip Inside pocket Length: 17 cm / Width: 8 cm / Height: 12 cm Water-repellent PFC-free Vegan
+[SUSTAINABILITY REPORT]
+67,12 liters of water used 12% % of liters saved 5,2 kg CO2 eq used 25% % of kg CO2 eq saved 78 people behind with safe work &amp; better livelihoods + 52 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+67,12 liters of water used 12% % of liters saved 5,2 kg CO2 eq used 25% % of kg CO2 eq saved 78 people behind with safe work &amp; better livelihoods + 52 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wakaialf-small-tech-organizer-black-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Small
+                        Black
+                        Wakaialf
+                        Tech
+                        Organiser</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>29,90€</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; SMALL BLACK WAKAIALF TECH ORGANISER</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The small Wakai organiser is made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. • Lining: 100% Recycled Polyamide • Filling: 100% PE • Vegan
+[SUSTAINABILITY REPORT]
+105,47 liters of water used 80% % of liters saved 2,67 kg CO2 eq used 57% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+105,47 liters of water used 80% % of liters saved 2,67 kg CO2 eq used 57% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wakaialf-small-tech-organizer-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Wakai
+                        Toiletry
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>29,90€</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The small Wakai toiletry bag is made from 100% recycled nylon, ECOALF’s alternative to virgin nylon. This allows us to give a second life to materials that would otherwise be considered waste. A water-repellent accessory with several interior compartments. Primary fabric: 100% recycled nylon 100% recycled nylon Main compartment with two-way zip Inside pocket Length: 17 cm / Width: 8 cm / Height: 12 cm Water-repellent PFC-free Vegan
+[SUSTAINABILITY REPORT]
+67,12 liters of water used 12% % of liters saved 5,2 kg CO2 eq used 25% % of kg CO2 eq saved 78 people behind with safe work &amp; better livelihoods + 52 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+67,12 liters of water used 12% % of liters saved 5,2 kg CO2 eq used 25% % of kg CO2 eq saved 78 people behind with safe work &amp; better livelihoods + 52 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wakaialf-small-tech-organizer-deep-navy-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Green
+                        Wakai
+                        Toiletry
+                        Bag</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>29,90€</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The small Wakai toiletry bag is made from 100% recycled nylon, ECOALF’s alternative to virgin nylon. This allows us to give a second life to materials that would otherwise be considered waste. A water-repellent accessory with several interior compartments. Primary fabric: 100% recycled nylon 100% recycled nylon Main compartment with two-way zip Inside pocket Length: 17 cm / Width: 8 cm / Height: 12 cm Water-repellent PFC-free Vegan
+[SUSTAINABILITY REPORT]
+67,12 liters of water used 12% % of liters saved 5,2 kg CO2 eq used 25% % of kg CO2 eq saved 78 people behind with safe work &amp; better livelihoods + 52 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+67,12 liters of water used 12% % of liters saved 5,2 kg CO2 eq used 25% % of kg CO2 eq saved 78 people behind with safe work &amp; better livelihoods + 52 processes from design to sale in a product ethically traded 22.925 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wakaialf-small-tech-organizer-forest-night-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Small
+                        Green
+                        Wakaialf
+                        Tech
+                        Organiser</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>29,90€</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; SMALL GREEN WAKAIALF TECH ORGANISER</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The small Wakai organiser is made of 100% recycled polyester. Recycled polyester cuts down on the use of fossil resources, CO2 emissions, and water and energy consumption by reusing plastic waste such as PET bottles, while maintaining the properties of virgin polyester. • Lining: 100% Recycled Polyamide • Filling: 100% PE • Vegan
+[SUSTAINABILITY REPORT]
+105,47 liters of water used 80% % of liters saved 2,67 kg CO2 eq used 57% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+105,47 liters of water used 80% % of liters saved 2,67 kg CO2 eq used 57% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wakaialf-small-tech-organizer-forest-night-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Green
+                        Wool
+                        Hat</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-beanie-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Brown
+                        Wool
+                        Hat</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BROWN WOOL HAT</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-beanie-biscotti-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Black
+                        Wool
+                        Hat</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BLACK WOOL HAT</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-beanie-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Wool
+                        Hat</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-beanie-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Beige
+                        Wool
+                        Hat</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BEIGE WOOL HAT</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-beanie-light-grey-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Brown
+                        Wool
+                        Hat</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana hat is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • 5GG knit fabric made of traceable recycled wool blend and ECOVEROTM • Small ribbed edge detail • Perfect for the cold weather • Recycled woven label on the side
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+60,17 liters of water used 84% % of liters saved 1,48 kg CO2 eq used 79% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-beanie-oat-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Wool
+                        Cap</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S CAPS &gt; NAVY BLUE WOOL CAP</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Wool cap is made of 50% recycled wool and 50% recycled polyester. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Ideal for everyday use. • Size 59 (equivalent to European men’s size L) • Soft wool fabric for warmth, with cotton lining • Logo embroidered tone-on-tone • Black aged brass buckle at the back for size adjustment
+[SUSTAINABILITY REPORT]
+1634,26 liters of water used 23% % of liters saved 2,33 kg CO2 eq used 75% % of kg CO2 eq saved 44203,29 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1634,26 liters of water used 23% % of liters saved 2,33 kg CO2 eq used 75% % of kg CO2 eq saved 44203,29 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-cap-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Dark
+                        Grey
+                        Wool
+                        Cap</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Home &gt; MEN'S CAPS &gt; DARK GREY WOOL CAP</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Wool cap is made of 50% recycled wool and 50% recycled polyester. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Ideal for everyday use. • Size 59 (equivalent to European men’s size L) • Soft wool fabric for warmth, with cotton lining • Logo embroidered tone-on-tone • Black aged brass buckle at the back for size adjustment
+[SUSTAINABILITY REPORT]
+1634,26 liters of water used 23% % of liters saved 2,33 kg CO2 eq used 75% % of kg CO2 eq saved 44203,29 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+1634,26 liters of water used 23% % of liters saved 2,33 kg CO2 eq used 75% % of kg CO2 eq saved 44203,29 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-cap-medium-grey-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Green
+                        Wool
+                        Gloves</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; GREEN WOOL GLOVES</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana gloves are made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
+[SUSTAINABILITY REPORT]
+37,7 liters of water used 87% % of liters saved 1,01 kg CO2 eq used 78% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+37,7 liters of water used 87% % of liters saved 1,01 kg CO2 eq used 78% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-gloves-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Black
+                        Wool
+                        Gloves</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BLACK WOOL GLOVES</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana gloves are made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
+[SUSTAINABILITY REPORT]
+37,7 liters of water used 87% % of liters saved 1,01 kg CO2 eq used 78% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+37,7 liters of water used 87% % of liters saved 1,01 kg CO2 eq used 78% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-gloves-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Red
+                        Wool
+                        Gloves</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; RED WOOL GLOVES</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana gloves are made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
+[SUSTAINABILITY REPORT]
+37,7 liters of water used 87% % of liters saved 1,01 kg CO2 eq used 78% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+37,7 liters of water used 87% % of liters saved 1,01 kg CO2 eq used 78% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-gloves-dark-red-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Wool
+                        Gloves</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; NAVY BLUE WOOL GLOVES</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana gloves are made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
+[SUSTAINABILITY REPORT]
+37,7 liters of water used 87% % of liters saved 1,01 kg CO2 eq used 78% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+37,7 liters of water used 87% % of liters saved 1,01 kg CO2 eq used 78% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-gloves-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Beige
+                        Wool
+                        Gloves</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>45,00€</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BEIGE WOOL GLOVES</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana gloves are made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
+[SUSTAINABILITY REPORT]
+37,7 liters of water used 87% % of liters saved 1,01 kg CO2 eq used 78% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+37,7 liters of water used 87% % of liters saved 1,01 kg CO2 eq used 78% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-gloves-oat-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Green
+                        Wool
+                        Scarf</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; GREEN WOOL SCARF</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana scarf is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
+[SUSTAINABILITY REPORT]
+194,45 liters of water used 76% % of liters saved 5,69 kg CO2 eq used 74% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+194,45 liters of water used 76% % of liters saved 5,69 kg CO2 eq used 74% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-scarf-asteroid-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Black
+                        Wool
+                        Scarf</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BLACK WOOL SCARF</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana scarf is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
+[SUSTAINABILITY REPORT]
+194,45 liters of water used 76% % of liters saved 5,69 kg CO2 eq used 74% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+194,45 liters of water used 76% % of liters saved 5,69 kg CO2 eq used 74% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-scarf-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Wool
+                        Scarf</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; NAVY BLUE WOOL SCARF</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana scarf is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
+[SUSTAINABILITY REPORT]
+194,45 liters of water used 76% % of liters saved 5,69 kg CO2 eq used 74% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+194,45 liters of water used 76% % of liters saved 5,69 kg CO2 eq used 74% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-scarf-deep-navy-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Beige
+                        Wool
+                        Scarf</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>79,90€</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; BEIGE WOOL SCARF</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Lana scarf is made of 65% recycled wool and 35% LENZING™ ECOVERO™ Viscose. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. LENZING™ ECOVERO™ Viscose is a material obtained from sustainable wood and cellulose, through a certified and controlled production process that is environmentally responsible. • The gloves come in two sizes (standard men's and standard women's) with touchscreen-friendly fingertips • 5GG knit fabric made of a traceable blend of recycled wool and ecovero composition • Single Jersey knit and ribbed cuff with elastic finish • Perfect for the cold weather • Recycled label on the cuff
+[SUSTAINABILITY REPORT]
+194,45 liters of water used 76% % of liters saved 5,69 kg CO2 eq used 74% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+194,45 liters of water used 76% % of liters saved 5,69 kg CO2 eq used 74% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/wool-scarf-oat-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Dark
+                        Green
+                        Wool
+                        Hat</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Wool beanie is made of 65% recycled wool, the alternative we use at ECOALF to avoid the use of virgin materials of animal origin. A very warm beanie made with the best quality fibres so you won't get cold. Main fabric: 65% recycled wool / 35% Ecovero ECOALF logo on front
+[SUSTAINABILITY REPORT]
+23,47 liters of water used 47% % of liters saved 1,87 kg CO2 eq used 71% % of kg CO2 eq saved 30 people behind with safe work &amp; better livelihoods + 20 processes from design to sale in a product ethically traded 28.048 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+23,47 liters of water used 47% % of liters saved 1,87 kg CO2 eq used 71% % of kg CO2 eq saved 30 people behind with safe work &amp; better livelihoods + 20 processes from design to sale in a product ethically traded 28.048 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/woolalf-beanie-beetle-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Grey
+                        Wool
+                        Hat</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>39,90€</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Home &gt; Sustainable accessories for men &gt; GREY WOOL HAT</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Wool beanie is made of 65% recycled wool, the alternative we use at ECOALF to avoid the use of virgin materials of animal origin. A very warm beanie made with the best quality fibres so you won't get cold. Main fabric: 65% recycled wool / 35% Ecovero ECOALF logo on front
+[SUSTAINABILITY REPORT]
+23,47 liters of water used 47% % of liters saved 1,87 kg CO2 eq used 71% % of kg CO2 eq saved 30 people behind with safe work &amp; better livelihoods + 20 processes from design to sale in a product ethically traded 28.048 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+23,47 liters of water used 47% % of liters saved 1,87 kg CO2 eq used 71% % of kg CO2 eq saved 30 people behind with safe work &amp; better livelihoods + 20 processes from design to sale in a product ethically traded 28.048 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/woolalf-beanie-medium-grey-melange-aw24</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Black
+                        Yulan
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>119,90€</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; BLACK YULAN SWEATER</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Yulan sweater is made of 100% recycled cotton. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and ideal for everyday use. • Rolled-edge cuffs • Regular cut • 12GG smooth knit • Interior branding
+[SUSTAINABILITY REPORT]
+136,81 liters of water used 82% % of liters saved 3,92 kg CO2 eq used 82% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+136,81 liters of water used 82% % of liters saved 3,92 kg CO2 eq used 82% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/yulan-knit-man-black-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Blue
+                        Yulan
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>119,90€</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; BLUE YULAN SWEATER</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Yulan sweater is made of 100% recycled cotton. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and ideal for everyday use. • Rolled-edge cuffs • Regular cut • 12GG smooth knit • Interior branding
+[SUSTAINABILITY REPORT]
+136,81 liters of water used 82% % of liters saved 3,92 kg CO2 eq used 82% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+136,81 liters of water used 82% % of liters saved 3,92 kg CO2 eq used 82% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/yulan-knit-man-ink-blue-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Light
+                        Grey
+                        Yulan
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>119,90€</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; LIGHT GREY YULAN SWEATER</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Yulan sweater is made of 100% recycled cotton. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and ideal for everyday use. • Rolled-edge cuffs • Regular cut • 12GG smooth knit • Interior branding
+[SUSTAINABILITY REPORT]
+136,81 liters of water used 82% % of liters saved 3,92 kg CO2 eq used 82% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+136,81 liters of water used 82% % of liters saved 3,92 kg CO2 eq used 82% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/yulan-knit-man-light-grey-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Beige
+                        Yulan
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>119,90€</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; BEIGE YULAN SWEATER</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The Yulan sweater is made of 100% recycled cotton. Using recycled wool instead of virgin wool helps cut down on waste, save resources such as water and soil, and reduce emissions and potential water pollution, aligning with the principles of a circular economy. Simple, elegant and ideal for everyday use. • Rolled-edge cuffs • Regular cut • 12GG smooth knit • Interior branding
+[SUSTAINABILITY REPORT]
+136,81 liters of water used 82% % of liters saved 3,92 kg CO2 eq used 82% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+136,81 liters of water used 82% % of liters saved 3,92 kg CO2 eq used 82% % of kg CO2 eq saved 22925,1 km behind committed to sustainability B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/yulan-knit-man-toast-melange-aw25</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Navy
+                        Blue
+                        Yulan
+                        Sweater</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>119,90€</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Home &gt; Men's sustainable knit jumpers: style and comfort for winter &gt; NAVY BLUE YULAN SWEATER</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>[PRODUCT DETAILS]
+The single-material Yulan sweater is made from 100% recycled wool, a textile that we reuse here at ECOALF to avoid using virgin materials of animal origin. Primary fabric: 100% recycled wool Regular fit Cuffs with rolled border ECOALF logo on the sleeve
+[SUSTAINABILITY REPORT]
+75,07 liters of water used 48% % of liters saved 6,1 kg CO2 eq used 77% % of kg CO2 eq saved 32 people behind with safe work &amp; better livelihoods + 21 processes from design to sale in a product ethically traded 20.725 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.
+[SUSTAINABILITY REPORT]
+75,07 liters of water used 48% % of liters saved 6,1 kg CO2 eq used 77% % of kg CO2 eq saved 32 people behind with safe work &amp; better livelihoods + 21 processes from design to sale in a product ethically traded 20.725 km behind committed to sustainability B Corp B Corp certification guarantees
+and product supply chain traceability powered by BCOME The BCOME Evaluation System scores Ecoalf's degree of environmental, social and ethical efficiency according to its best sustainable initiatives carried out throughout its value chain.</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>https://ecoalf.com/en/products/yulanalf-knit-man-deep-navy-aw24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
